--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_16_15.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_16_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1376766.439922153</v>
+        <v>-1377504.541980131</v>
       </c>
     </row>
     <row r="7">
@@ -1370,25 +1370,25 @@
         <v>261.5299779071684</v>
       </c>
       <c r="C11" t="n">
-        <v>244.798663594716</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>234.4183006703718</v>
+        <v>197.1864550835441</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>260.9316036710608</v>
       </c>
       <c r="F11" t="n">
-        <v>40.16115884645184</v>
+        <v>285.1074313963142</v>
       </c>
       <c r="G11" t="n">
-        <v>292.1417995066252</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>210.5651068917549</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.7386809590218</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.68013037605205</v>
+        <v>71.68013037605206</v>
       </c>
       <c r="T11" t="n">
-        <v>98.47378334587783</v>
+        <v>98.47378334587785</v>
       </c>
       <c r="U11" t="n">
-        <v>129.2492087872794</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>206.3467894382927</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>264.5006396670092</v>
       </c>
     </row>
     <row r="12">
@@ -1449,25 +1449,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
-        <v>48.83915184317435</v>
+        <v>48.83915184317436</v>
       </c>
       <c r="D12" t="n">
-        <v>23.92599149041892</v>
+        <v>23.92599149041894</v>
       </c>
       <c r="E12" t="n">
-        <v>33.84700162294719</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>143.5062320835493</v>
+        <v>21.31979999932267</v>
       </c>
       <c r="G12" t="n">
-        <v>135.7414897785979</v>
+        <v>13.55505769437128</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>107.7416892983144</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>76.8039586076267</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>77.20360100342836</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>163.7287805460299</v>
+        <v>86.80839635076126</v>
       </c>
       <c r="T12" t="n">
         <v>197.2470008911528</v>
@@ -1506,16 +1506,16 @@
         <v>102.4522107443927</v>
       </c>
       <c r="V12" t="n">
-        <v>140.143961662672</v>
+        <v>109.7222989554285</v>
       </c>
       <c r="W12" t="n">
-        <v>249.98934675</v>
+        <v>127.8029146657734</v>
       </c>
       <c r="X12" t="n">
-        <v>82.27519752425162</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y12" t="n">
-        <v>81.48471933435938</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>57.89725940645717</v>
+        <v>57.89725940645718</v>
       </c>
       <c r="C13" t="n">
-        <v>45.1501208469757</v>
+        <v>45.15012084697571</v>
       </c>
       <c r="D13" t="n">
-        <v>26.81913443029272</v>
+        <v>26.81913443029273</v>
       </c>
       <c r="E13" t="n">
-        <v>24.78819208897254</v>
+        <v>24.78819208897255</v>
       </c>
       <c r="F13" t="n">
-        <v>23.97258932557786</v>
+        <v>23.97258932557787</v>
       </c>
       <c r="G13" t="n">
-        <v>45.4669719039529</v>
+        <v>45.46697190395292</v>
       </c>
       <c r="H13" t="n">
-        <v>37.34774107736207</v>
+        <v>37.34774107736209</v>
       </c>
       <c r="I13" t="n">
-        <v>24.46938936863564</v>
+        <v>24.46938936863566</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.58498174211507</v>
+        <v>40.58498174211508</v>
       </c>
       <c r="S13" t="n">
-        <v>96.05491548013248</v>
+        <v>96.05491548013251</v>
       </c>
       <c r="T13" t="n">
         <v>105.1368800644955</v>
@@ -1594,7 +1594,7 @@
         <v>103.9539278480826</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.56224178354158</v>
+        <v>96.56224178354159</v>
       </c>
     </row>
     <row r="14">
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>261.5299779071684</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>234.4183006703718</v>
+        <v>35.03601399053179</v>
       </c>
       <c r="E14" t="n">
-        <v>260.9316036710608</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>285.1074313963142</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>292.1417995066252</v>
@@ -1625,7 +1625,7 @@
         <v>210.5651068917549</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.73868095902181</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.68013037605205</v>
+        <v>71.68013037605206</v>
       </c>
       <c r="T14" t="n">
-        <v>98.47378334587783</v>
+        <v>98.47378334587785</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>129.2492087872795</v>
       </c>
       <c r="V14" t="n">
-        <v>200.9408704895923</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>228.343684916328</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>264.5006396670092</v>
       </c>
     </row>
     <row r="15">
@@ -1686,19 +1686,19 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C15" t="n">
-        <v>171.025583927401</v>
+        <v>48.83915184317436</v>
       </c>
       <c r="D15" t="n">
-        <v>23.92599149041892</v>
+        <v>23.92599149041894</v>
       </c>
       <c r="E15" t="n">
-        <v>33.84700162294719</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F15" t="n">
-        <v>21.31979999932265</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>13.55505769437127</v>
+        <v>135.7414897785979</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>41.5423484618033</v>
+        <v>41.54234846180331</v>
       </c>
       <c r="T15" t="n">
-        <v>75.06056880692617</v>
+        <v>197.2470008911528</v>
       </c>
       <c r="U15" t="n">
-        <v>218.5796899173944</v>
+        <v>218.5796899173942</v>
       </c>
       <c r="V15" t="n">
-        <v>231.9087310396551</v>
+        <v>109.7222989554285</v>
       </c>
       <c r="W15" t="n">
-        <v>249.98934675</v>
+        <v>127.8029146657734</v>
       </c>
       <c r="X15" t="n">
-        <v>204.4616296084783</v>
+        <v>82.27519752425164</v>
       </c>
       <c r="Y15" t="n">
         <v>203.671151418586</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>57.89725940645717</v>
+        <v>57.89725940645718</v>
       </c>
       <c r="C16" t="n">
-        <v>45.1501208469757</v>
+        <v>45.15012084697571</v>
       </c>
       <c r="D16" t="n">
-        <v>26.81913443029272</v>
+        <v>26.81913443029273</v>
       </c>
       <c r="E16" t="n">
-        <v>24.78819208897254</v>
+        <v>24.78819208897255</v>
       </c>
       <c r="F16" t="n">
-        <v>23.97258932557786</v>
+        <v>23.97258932557787</v>
       </c>
       <c r="G16" t="n">
-        <v>45.46697190395291</v>
+        <v>45.46697190395292</v>
       </c>
       <c r="H16" t="n">
-        <v>37.34774107736207</v>
+        <v>37.34774107736208</v>
       </c>
       <c r="I16" t="n">
-        <v>24.46938936863565</v>
+        <v>24.46938936863566</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>40.58498174211506</v>
+        <v>40.58498174211508</v>
       </c>
       <c r="S16" t="n">
         <v>96.05491548013249</v>
@@ -1819,7 +1819,7 @@
         <v>105.1368800644955</v>
       </c>
       <c r="U16" t="n">
-        <v>163.8529554918233</v>
+        <v>163.8529554918236</v>
       </c>
       <c r="V16" t="n">
         <v>130.7499189827125</v>
@@ -1831,7 +1831,7 @@
         <v>103.9539278480826</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.56224178354158</v>
+        <v>96.56224178354159</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>160.5008656449836</v>
+        <v>160.5008656449839</v>
       </c>
       <c r="C17" t="n">
         <v>143.7695513325315</v>
@@ -1923,19 +1923,19 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>83.04793504517724</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.7414897785979</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>163.7287805460299</v>
       </c>
       <c r="T18" t="n">
         <v>197.2470008911528</v>
@@ -1980,13 +1980,13 @@
         <v>1.423098482208227</v>
       </c>
       <c r="V18" t="n">
-        <v>231.9087310396551</v>
+        <v>8.693186693244002</v>
       </c>
       <c r="W18" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X18" t="n">
-        <v>204.4616296084783</v>
+        <v>82.74075681211664</v>
       </c>
       <c r="Y18" t="n">
         <v>203.671151418586</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>159.5341731615887</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>62.87703254100441</v>
       </c>
       <c r="X19" t="n">
-        <v>39.10509810535636</v>
+        <v>198.6392712669451</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>133.3891884081873</v>
       </c>
       <c r="E20" t="n">
-        <v>159.9024914088763</v>
+        <v>159.9024914088762</v>
       </c>
       <c r="F20" t="n">
         <v>184.0783191341297</v>
@@ -2157,28 +2157,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.7414897785979</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>107.7416892983144</v>
       </c>
       <c r="I21" t="n">
-        <v>76.8039586076267</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,10 +2208,10 @@
         <v>77.20360100342836</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>163.7287805460299</v>
       </c>
       <c r="T21" t="n">
-        <v>49.18425555350964</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>224.6386428286193</v>
@@ -2220,10 +2220,10 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>249.98934675</v>
+        <v>48.98070084882206</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>203.671151418586</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>49.05863422818468</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>146.6558214528623</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>29.72080672052803</v>
       </c>
       <c r="W22" t="n">
-        <v>258.5914882220514</v>
+        <v>62.87703254100441</v>
       </c>
       <c r="X22" t="n">
         <v>2.924815585898131</v>
@@ -2397,13 +2397,13 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
         <v>143.5062320835493</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>77.20360100342836</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>163.7287805460299</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>37.71566533450896</v>
       </c>
       <c r="U24" t="n">
-        <v>61.40784372736219</v>
+        <v>224.6386428286193</v>
       </c>
       <c r="V24" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
-        <v>249.98934675</v>
+        <v>26.77380240358892</v>
       </c>
       <c r="X24" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2494,10 +2494,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>32.94304185470525</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>72.1405695334325</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>162.7714138263417</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>2.924815585898131</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>123.5738861476145</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>241.6290109050979</v>
       </c>
       <c r="C26" t="n">
-        <v>224.8976965926454</v>
+        <v>224.8976965926455</v>
       </c>
       <c r="D26" t="n">
         <v>214.5173336683012</v>
@@ -2573,7 +2573,7 @@
         <v>190.6641398896843</v>
       </c>
       <c r="I26" t="n">
-        <v>42.83771395695126</v>
+        <v>42.83771395695128</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.7791633739815</v>
+        <v>51.77916337398153</v>
       </c>
       <c r="T26" t="n">
-        <v>78.57281634380729</v>
+        <v>78.57281634380732</v>
       </c>
       <c r="U26" t="n">
         <v>109.3482417852089</v>
@@ -2621,7 +2621,7 @@
         <v>228.7742000448722</v>
       </c>
       <c r="Y26" t="n">
-        <v>244.5996726649386</v>
+        <v>244.5996726649387</v>
       </c>
     </row>
     <row r="27">
@@ -2637,22 +2637,22 @@
         <v>171.025583927401</v>
       </c>
       <c r="D27" t="n">
-        <v>146.1124235746456</v>
+        <v>4.025024488348407</v>
       </c>
       <c r="E27" t="n">
-        <v>156.0334337071738</v>
+        <v>13.94603462087667</v>
       </c>
       <c r="F27" t="n">
-        <v>143.5062320835493</v>
+        <v>1.418832997252139</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>135.7414897785979</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>107.7416892983144</v>
       </c>
       <c r="I27" t="n">
-        <v>10.2165122590993</v>
+        <v>76.8039586076267</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2685,19 +2685,19 @@
         <v>163.7287805460299</v>
       </c>
       <c r="T27" t="n">
-        <v>55.15960180485563</v>
+        <v>197.2470008911528</v>
       </c>
       <c r="U27" t="n">
-        <v>82.55124374232217</v>
+        <v>224.6386428286193</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
-        <v>249.98934675</v>
+        <v>224.0935194971548</v>
       </c>
       <c r="X27" t="n">
-        <v>204.4616296084783</v>
+        <v>62.37423052218111</v>
       </c>
       <c r="Y27" t="n">
         <v>203.671151418586</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>37.99629240438662</v>
+        <v>37.99629240438665</v>
       </c>
       <c r="C28" t="n">
-        <v>25.24915384490515</v>
+        <v>25.24915384490518</v>
       </c>
       <c r="D28" t="n">
-        <v>6.918167428222176</v>
+        <v>6.918167428222205</v>
       </c>
       <c r="E28" t="n">
-        <v>4.887225086901992</v>
+        <v>4.887225086902021</v>
       </c>
       <c r="F28" t="n">
-        <v>4.071622323507313</v>
+        <v>4.071622323507341</v>
       </c>
       <c r="G28" t="n">
-        <v>25.56600490188236</v>
+        <v>25.56600490188239</v>
       </c>
       <c r="H28" t="n">
-        <v>17.44677407529152</v>
+        <v>17.44677407529155</v>
       </c>
       <c r="I28" t="n">
-        <v>4.568422366565097</v>
+        <v>4.568422366565126</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.68401474004452</v>
+        <v>20.68401474004455</v>
       </c>
       <c r="S28" t="n">
-        <v>76.15394847806193</v>
+        <v>76.15394847806196</v>
       </c>
       <c r="T28" t="n">
-        <v>85.23591306242498</v>
+        <v>85.23591306242501</v>
       </c>
       <c r="U28" t="n">
         <v>143.9519884897528</v>
@@ -2776,10 +2776,10 @@
         <v>144.0051778011184</v>
       </c>
       <c r="X28" t="n">
-        <v>84.05296084601207</v>
+        <v>84.0529608460121</v>
       </c>
       <c r="Y28" t="n">
-        <v>76.66127478147104</v>
+        <v>76.66127478147106</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2795,7 @@
         <v>224.8976965926455</v>
       </c>
       <c r="D29" t="n">
-        <v>214.5173336683013</v>
+        <v>214.5173336683012</v>
       </c>
       <c r="E29" t="n">
         <v>241.0306366689903</v>
@@ -2804,13 +2804,13 @@
         <v>265.2064643942437</v>
       </c>
       <c r="G29" t="n">
-        <v>272.2408325045547</v>
+        <v>272.2408325045546</v>
       </c>
       <c r="H29" t="n">
         <v>190.6641398896843</v>
       </c>
       <c r="I29" t="n">
-        <v>42.83771395695131</v>
+        <v>42.83771395695129</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.77916337398156</v>
+        <v>51.77916337398153</v>
       </c>
       <c r="T29" t="n">
-        <v>78.57281634380735</v>
+        <v>78.57281634380732</v>
       </c>
       <c r="U29" t="n">
-        <v>109.348241785209</v>
+        <v>109.3482417852089</v>
       </c>
       <c r="V29" t="n">
         <v>186.4458224362222</v>
       </c>
       <c r="W29" t="n">
-        <v>208.4427179142575</v>
+        <v>208.4427179142574</v>
       </c>
       <c r="X29" t="n">
-        <v>228.7742000448723</v>
+        <v>228.7742000448722</v>
       </c>
       <c r="Y29" t="n">
         <v>244.5996726649387</v>
@@ -2883,13 +2883,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>135.7414897785979</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>107.7416892983144</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>76.8039586076267</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,28 +2916,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>77.20360100342836</v>
       </c>
       <c r="S30" t="n">
         <v>163.7287805460299</v>
       </c>
       <c r="T30" t="n">
-        <v>55.15960180485568</v>
+        <v>197.2470008911528</v>
       </c>
       <c r="U30" t="n">
-        <v>169.9713570048499</v>
+        <v>198.7428155757743</v>
       </c>
       <c r="V30" t="n">
-        <v>231.9087310396551</v>
+        <v>89.82133195335797</v>
       </c>
       <c r="W30" t="n">
-        <v>249.98934675</v>
+        <v>107.9019476637029</v>
       </c>
       <c r="X30" t="n">
-        <v>204.4616296084783</v>
+        <v>62.37423052218111</v>
       </c>
       <c r="Y30" t="n">
-        <v>203.671151418586</v>
+        <v>61.58375233228887</v>
       </c>
     </row>
     <row r="31">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>37.99629240438668</v>
+        <v>37.99629240438665</v>
       </c>
       <c r="C31" t="n">
-        <v>25.24915384490521</v>
+        <v>25.24915384490518</v>
       </c>
       <c r="D31" t="n">
-        <v>6.918167428222233</v>
+        <v>6.918167428222205</v>
       </c>
       <c r="E31" t="n">
-        <v>4.887225086902049</v>
+        <v>4.887225086902021</v>
       </c>
       <c r="F31" t="n">
-        <v>4.07162232350737</v>
+        <v>4.071622323507341</v>
       </c>
       <c r="G31" t="n">
-        <v>25.56600490188242</v>
+        <v>25.56600490188239</v>
       </c>
       <c r="H31" t="n">
-        <v>17.44677407529158</v>
+        <v>17.44677407529155</v>
       </c>
       <c r="I31" t="n">
-        <v>4.568422366565154</v>
+        <v>4.568422366565126</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>20.68401474004458</v>
+        <v>20.68401474004455</v>
       </c>
       <c r="S31" t="n">
-        <v>76.15394847806199</v>
+        <v>76.15394847806196</v>
       </c>
       <c r="T31" t="n">
-        <v>85.23591306242504</v>
+        <v>85.23591306242501</v>
       </c>
       <c r="U31" t="n">
         <v>143.9519884897528</v>
@@ -3013,10 +3013,10 @@
         <v>144.0051778011184</v>
       </c>
       <c r="X31" t="n">
-        <v>84.05296084601213</v>
+        <v>84.0529608460121</v>
       </c>
       <c r="Y31" t="n">
-        <v>76.66127478147109</v>
+        <v>76.66127478147106</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>190.6641398896843</v>
       </c>
       <c r="I32" t="n">
-        <v>42.83771395695132</v>
+        <v>42.83771395695131</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3108,25 +3108,25 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
-        <v>171.025583927401</v>
+        <v>28.93818484110386</v>
       </c>
       <c r="D33" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>156.0334337071738</v>
+        <v>13.9460346208767</v>
       </c>
       <c r="F33" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>135.7414897785979</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>107.7416892983144</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>76.8039586076267</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>21.64138145973281</v>
+        <v>163.7287805460299</v>
       </c>
       <c r="T33" t="n">
-        <v>55.15960180485568</v>
+        <v>197.2470008911528</v>
       </c>
       <c r="U33" t="n">
-        <v>176.317266312549</v>
+        <v>224.6386428286193</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
@@ -3171,7 +3171,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X33" t="n">
-        <v>204.4616296084783</v>
+        <v>107.3360949650647</v>
       </c>
       <c r="Y33" t="n">
         <v>203.671151418586</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>160.5008656449839</v>
+        <v>160.5008656449838</v>
       </c>
       <c r="C35" t="n">
         <v>143.7695513325314</v>
@@ -3272,16 +3272,16 @@
         <v>133.3891884081872</v>
       </c>
       <c r="E35" t="n">
-        <v>159.9024914088763</v>
+        <v>159.9024914088762</v>
       </c>
       <c r="F35" t="n">
-        <v>184.0783191341297</v>
+        <v>184.0783191341296</v>
       </c>
       <c r="G35" t="n">
-        <v>191.1126872444407</v>
+        <v>191.1126872444406</v>
       </c>
       <c r="H35" t="n">
-        <v>109.5359946295703</v>
+        <v>109.5359946295702</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,16 +3320,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>28.2200965250949</v>
+        <v>28.22009652509485</v>
       </c>
       <c r="V35" t="n">
-        <v>105.3176771761082</v>
+        <v>105.3176771761081</v>
       </c>
       <c r="W35" t="n">
-        <v>127.3145726541434</v>
+        <v>127.3145726541433</v>
       </c>
       <c r="X35" t="n">
-        <v>147.6460547847582</v>
+        <v>147.6460547847581</v>
       </c>
       <c r="Y35" t="n">
         <v>163.4715274048246</v>
@@ -3348,16 +3348,16 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.7414897785979</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3390,16 +3390,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>77.20360100342836</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>163.7287805460299</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>197.2470008911528</v>
       </c>
       <c r="U36" t="n">
-        <v>153.2039525552161</v>
+        <v>1.423098482208113</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -3411,7 +3411,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
-        <v>203.671151418586</v>
+        <v>83.67699055420432</v>
       </c>
     </row>
     <row r="37">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3475,22 +3475,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>4.107767802310984</v>
+        <v>4.107767802310927</v>
       </c>
       <c r="U37" t="n">
-        <v>62.82384322963875</v>
+        <v>258.5382989106863</v>
       </c>
       <c r="V37" t="n">
-        <v>29.72080672052797</v>
+        <v>29.72080672052792</v>
       </c>
       <c r="W37" t="n">
-        <v>62.87703254100435</v>
+        <v>62.8770325410043</v>
       </c>
       <c r="X37" t="n">
-        <v>2.924815585898074</v>
+        <v>2.924815585898017</v>
       </c>
       <c r="Y37" t="n">
-        <v>15.63076419036344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,10 +3503,10 @@
         <v>160.5008656449839</v>
       </c>
       <c r="C38" t="n">
-        <v>143.7695513325314</v>
+        <v>143.7695513325315</v>
       </c>
       <c r="D38" t="n">
-        <v>133.3891884081872</v>
+        <v>133.3891884081873</v>
       </c>
       <c r="E38" t="n">
         <v>159.9024914088763</v>
@@ -3518,7 +3518,7 @@
         <v>191.1126872444407</v>
       </c>
       <c r="H38" t="n">
-        <v>109.5359946295703</v>
+        <v>109.5359946295704</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>28.2200965250949</v>
+        <v>28.22009652509496</v>
       </c>
       <c r="V38" t="n">
         <v>105.3176771761082</v>
       </c>
       <c r="W38" t="n">
-        <v>127.3145726541434</v>
+        <v>127.3145726541435</v>
       </c>
       <c r="X38" t="n">
-        <v>147.6460547847582</v>
+        <v>147.6460547847583</v>
       </c>
       <c r="Y38" t="n">
-        <v>163.4715274048246</v>
+        <v>163.4715274048247</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>107.7416892983144</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>76.8039586076267</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>77.20360100342836</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3636,16 +3636,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>1.42309848220817</v>
+        <v>1.423098482208227</v>
       </c>
       <c r="V39" t="n">
-        <v>212.6640011852621</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W39" t="n">
-        <v>249.98934675</v>
+        <v>26.77380240358892</v>
       </c>
       <c r="X39" t="n">
-        <v>204.4616296084783</v>
+        <v>146.6831951911268</v>
       </c>
       <c r="Y39" t="n">
         <v>203.671151418586</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>28.37790274984468</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3712,19 +3712,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>4.107767802310984</v>
+        <v>4.107767802311041</v>
       </c>
       <c r="U40" t="n">
-        <v>258.538298910686</v>
+        <v>62.82384322963881</v>
       </c>
       <c r="V40" t="n">
-        <v>29.72080672052797</v>
+        <v>29.72080672052803</v>
       </c>
       <c r="W40" t="n">
-        <v>62.87703254100435</v>
+        <v>62.87703254100441</v>
       </c>
       <c r="X40" t="n">
-        <v>2.924815585898074</v>
+        <v>2.924815585898131</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>30.77542544140164</v>
+        <v>30.77542544140162</v>
       </c>
       <c r="V41" t="n">
         <v>107.8730060924149</v>
@@ -3806,7 +3806,7 @@
         <v>150.2013837010649</v>
       </c>
       <c r="Y41" t="n">
-        <v>166.0268563211314</v>
+        <v>166.0268563211313</v>
       </c>
     </row>
     <row r="42">
@@ -3822,7 +3822,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
-        <v>146.1124235746456</v>
+        <v>78.69353220032042</v>
       </c>
       <c r="E42" t="n">
         <v>156.0334337071738</v>
@@ -3831,10 +3831,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.7414897785979</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>107.7416892983144</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,16 +3864,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>77.20360100342836</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>163.7287805460299</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>12.84231562349466</v>
+        <v>3.978427398514877</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -3882,10 +3882,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X42" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3949,19 +3949,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>6.663096718617719</v>
+        <v>6.66309671861769</v>
       </c>
       <c r="U43" t="n">
-        <v>65.37917214594549</v>
+        <v>65.37917214594546</v>
       </c>
       <c r="V43" t="n">
-        <v>32.27613563683471</v>
+        <v>32.27613563683468</v>
       </c>
       <c r="W43" t="n">
-        <v>68.28648106614081</v>
+        <v>248.3701725568247</v>
       </c>
       <c r="X43" t="n">
-        <v>5.480144502204809</v>
+        <v>5.48014450220478</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>30.77542544140162</v>
+        <v>30.77542544140261</v>
       </c>
       <c r="V44" t="n">
         <v>107.8730060924149</v>
@@ -4059,22 +4059,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>112.9757292192724</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>135.7414897785979</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>76.8039586076267</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>77.20360100342836</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>163.7287805460299</v>
@@ -4110,7 +4110,7 @@
         <v>197.2470008911528</v>
       </c>
       <c r="U45" t="n">
-        <v>191.3406064756534</v>
+        <v>3.978427398514877</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -4119,7 +4119,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>203.671151418586</v>
@@ -4192,13 +4192,13 @@
         <v>65.37917214594546</v>
       </c>
       <c r="V46" t="n">
-        <v>215.2139467363483</v>
+        <v>32.27613563683468</v>
       </c>
       <c r="W46" t="n">
         <v>65.43236145731106</v>
       </c>
       <c r="X46" t="n">
-        <v>5.48014450220478</v>
+        <v>188.4179556017184</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1129.70766076816</v>
+        <v>784.658953376219</v>
       </c>
       <c r="C11" t="n">
-        <v>882.4362833997604</v>
+        <v>784.658953376219</v>
       </c>
       <c r="D11" t="n">
-        <v>645.6501211064553</v>
+        <v>585.4807159180932</v>
       </c>
       <c r="E11" t="n">
-        <v>645.6501211064553</v>
+        <v>321.9134394826782</v>
       </c>
       <c r="F11" t="n">
-        <v>605.0832939888272</v>
+        <v>33.92613504195672</v>
       </c>
       <c r="G11" t="n">
-        <v>309.9905672144583</v>
+        <v>33.92613504195672</v>
       </c>
       <c r="H11" t="n">
-        <v>97.29854005106964</v>
+        <v>33.92613504195672</v>
       </c>
       <c r="I11" t="n">
-        <v>33.9261350419567</v>
+        <v>33.92613504195672</v>
       </c>
       <c r="J11" t="n">
-        <v>68.92736446938306</v>
+        <v>77.51546089597892</v>
       </c>
       <c r="K11" t="n">
-        <v>256.5330572890958</v>
+        <v>265.1211537156917</v>
       </c>
       <c r="L11" t="n">
-        <v>541.2435865852369</v>
+        <v>541.2435865852378</v>
       </c>
       <c r="M11" t="n">
-        <v>873.2512021312107</v>
+        <v>873.2512021312116</v>
       </c>
       <c r="N11" t="n">
-        <v>1195.113873007724</v>
+        <v>1195.113873007725</v>
       </c>
       <c r="O11" t="n">
-        <v>1452.911314802825</v>
+        <v>1452.911314802826</v>
       </c>
       <c r="P11" t="n">
-        <v>1635.996673852329</v>
+        <v>1635.99667385233</v>
       </c>
       <c r="Q11" t="n">
-        <v>1696.306752097835</v>
+        <v>1696.306752097836</v>
       </c>
       <c r="R11" t="n">
-        <v>1696.306752097835</v>
+        <v>1696.306752097836</v>
       </c>
       <c r="S11" t="n">
         <v>1623.902580000813</v>
       </c>
       <c r="T11" t="n">
-        <v>1524.434111974673</v>
+        <v>1524.434111974674</v>
       </c>
       <c r="U11" t="n">
-        <v>1393.879355623886</v>
+        <v>1524.434111974674</v>
       </c>
       <c r="V11" t="n">
-        <v>1393.879355623886</v>
+        <v>1316.003011531954</v>
       </c>
       <c r="W11" t="n">
-        <v>1393.879355623886</v>
+        <v>1316.003011531954</v>
       </c>
       <c r="X11" t="n">
-        <v>1393.879355623886</v>
+        <v>1316.003011531954</v>
       </c>
       <c r="Y11" t="n">
-        <v>1393.879355623886</v>
+        <v>1048.830648231945</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>423.6835762729543</v>
+        <v>486.6726831635751</v>
       </c>
       <c r="C12" t="n">
-        <v>374.3510996636873</v>
+        <v>437.3402065543081</v>
       </c>
       <c r="D12" t="n">
-        <v>350.183431491547</v>
+        <v>413.1725383821677</v>
       </c>
       <c r="E12" t="n">
-        <v>315.9945409633175</v>
+        <v>255.5630093850224</v>
       </c>
       <c r="F12" t="n">
-        <v>171.0387509799344</v>
+        <v>234.0278578705551</v>
       </c>
       <c r="G12" t="n">
-        <v>33.9261350419567</v>
+        <v>220.3358804014932</v>
       </c>
       <c r="H12" t="n">
-        <v>33.9261350419567</v>
+        <v>111.5058912112766</v>
       </c>
       <c r="I12" t="n">
-        <v>33.9261350419567</v>
+        <v>33.92613504195672</v>
       </c>
       <c r="J12" t="n">
-        <v>67.66968408571677</v>
+        <v>33.92613504195672</v>
       </c>
       <c r="K12" t="n">
-        <v>251.9483972272009</v>
+        <v>218.2048481834408</v>
       </c>
       <c r="L12" t="n">
-        <v>277.4415148957539</v>
+        <v>526.839926371058</v>
       </c>
       <c r="M12" t="n">
-        <v>690.4042878392488</v>
+        <v>573.6243681636277</v>
       </c>
       <c r="N12" t="n">
-        <v>1110.240208983463</v>
+        <v>993.460289307842</v>
       </c>
       <c r="O12" t="n">
-        <v>1444.477999423928</v>
+        <v>1327.698079748307</v>
       </c>
       <c r="P12" t="n">
-        <v>1696.306752097835</v>
+        <v>1579.526832422214</v>
       </c>
       <c r="Q12" t="n">
-        <v>1696.306752097835</v>
+        <v>1696.306752097836</v>
       </c>
       <c r="R12" t="n">
-        <v>1618.323316740837</v>
+        <v>1696.306752097836</v>
       </c>
       <c r="S12" t="n">
-        <v>1452.940710128685</v>
+        <v>1608.621503258683</v>
       </c>
       <c r="T12" t="n">
-        <v>1253.701315289137</v>
+        <v>1409.382108419135</v>
       </c>
       <c r="U12" t="n">
-        <v>1150.214233729144</v>
+        <v>1305.895026859142</v>
       </c>
       <c r="V12" t="n">
-        <v>1008.654676494122</v>
+        <v>1195.064421853659</v>
       </c>
       <c r="W12" t="n">
-        <v>756.1401848274552</v>
+        <v>1065.970568655908</v>
       </c>
       <c r="X12" t="n">
-        <v>673.0339247019485</v>
+        <v>859.443670061485</v>
       </c>
       <c r="Y12" t="n">
-        <v>590.7261273945148</v>
+        <v>653.7152342851355</v>
       </c>
     </row>
     <row r="13">
@@ -5185,25 +5185,25 @@
         <v>166.5086518859249</v>
       </c>
       <c r="F13" t="n">
-        <v>142.293915193422</v>
+        <v>142.2939151934219</v>
       </c>
       <c r="G13" t="n">
-        <v>96.3676809470049</v>
+        <v>96.36768094700483</v>
       </c>
       <c r="H13" t="n">
-        <v>58.64268995977048</v>
+        <v>58.64268995977052</v>
       </c>
       <c r="I13" t="n">
-        <v>33.9261350419567</v>
+        <v>33.92613504195672</v>
       </c>
       <c r="J13" t="n">
-        <v>83.47153896724288</v>
+        <v>83.47153896724313</v>
       </c>
       <c r="K13" t="n">
-        <v>216.9754331305907</v>
+        <v>216.975433130591</v>
       </c>
       <c r="L13" t="n">
-        <v>409.7896366833856</v>
+        <v>409.7896366833858</v>
       </c>
       <c r="M13" t="n">
         <v>617.1024709467708</v>
@@ -5218,7 +5218,7 @@
         <v>1171.045532982324</v>
       </c>
       <c r="Q13" t="n">
-        <v>1232.626503369551</v>
+        <v>1232.626503369552</v>
       </c>
       <c r="R13" t="n">
         <v>1191.63157231691</v>
@@ -5227,22 +5227,22 @@
         <v>1094.606405165261</v>
       </c>
       <c r="T13" t="n">
-        <v>988.4075364132451</v>
+        <v>988.4075364132453</v>
       </c>
       <c r="U13" t="n">
-        <v>822.8995005629185</v>
+        <v>822.8995005629188</v>
       </c>
       <c r="V13" t="n">
-        <v>690.8288753278555</v>
+        <v>690.8288753278554</v>
       </c>
       <c r="W13" t="n">
-        <v>525.2671129003919</v>
+        <v>525.267112900392</v>
       </c>
       <c r="X13" t="n">
-        <v>420.2631453770761</v>
+        <v>420.2631453770762</v>
       </c>
       <c r="Y13" t="n">
-        <v>322.7255274139028</v>
+        <v>322.7255274139029</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1330.226899423168</v>
+        <v>640.6484743845888</v>
       </c>
       <c r="C14" t="n">
-        <v>1330.226899423168</v>
+        <v>640.6484743845888</v>
       </c>
       <c r="D14" t="n">
-        <v>1093.440737129863</v>
+        <v>605.2585612628395</v>
       </c>
       <c r="E14" t="n">
-        <v>829.873460694448</v>
+        <v>605.2585612628395</v>
       </c>
       <c r="F14" t="n">
-        <v>541.8861562537265</v>
+        <v>605.2585612628395</v>
       </c>
       <c r="G14" t="n">
-        <v>246.7934294793576</v>
+        <v>310.1658344884706</v>
       </c>
       <c r="H14" t="n">
-        <v>34.10140231596885</v>
+        <v>97.47380732508179</v>
       </c>
       <c r="I14" t="n">
         <v>34.10140231596885</v>
       </c>
       <c r="J14" t="n">
-        <v>77.69072816999119</v>
+        <v>77.69072816999105</v>
       </c>
       <c r="K14" t="n">
-        <v>265.296420989704</v>
+        <v>265.2964209897037</v>
       </c>
       <c r="L14" t="n">
-        <v>550.0069502858452</v>
+        <v>550.0069502858448</v>
       </c>
       <c r="M14" t="n">
-        <v>882.0145658318189</v>
+        <v>882.0145658318186</v>
       </c>
       <c r="N14" t="n">
         <v>1203.877236708332</v>
@@ -5303,25 +5303,25 @@
         <v>1705.070115798443</v>
       </c>
       <c r="S14" t="n">
-        <v>1632.665943701421</v>
+        <v>1632.66594370142</v>
       </c>
       <c r="T14" t="n">
         <v>1533.197475675281</v>
       </c>
       <c r="U14" t="n">
-        <v>1533.197475675281</v>
+        <v>1402.642719324494</v>
       </c>
       <c r="V14" t="n">
-        <v>1330.226899423168</v>
+        <v>1402.642719324494</v>
       </c>
       <c r="W14" t="n">
-        <v>1330.226899423168</v>
+        <v>1171.992532540324</v>
       </c>
       <c r="X14" t="n">
-        <v>1330.226899423168</v>
+        <v>1171.992532540324</v>
       </c>
       <c r="Y14" t="n">
-        <v>1330.226899423168</v>
+        <v>904.8201692403148</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>300.4382050780507</v>
+        <v>547.2794820158823</v>
       </c>
       <c r="C15" t="n">
-        <v>127.6850899998679</v>
+        <v>497.9470054066153</v>
       </c>
       <c r="D15" t="n">
-        <v>103.5174218277276</v>
+        <v>473.779337234475</v>
       </c>
       <c r="E15" t="n">
-        <v>69.32853129949807</v>
+        <v>316.1698082373297</v>
       </c>
       <c r="F15" t="n">
-        <v>47.79337978503074</v>
+        <v>171.2140182539466</v>
       </c>
       <c r="G15" t="n">
         <v>34.10140231596885</v>
@@ -5355,25 +5355,25 @@
         <v>34.10140231596885</v>
       </c>
       <c r="J15" t="n">
-        <v>34.10140231596885</v>
+        <v>67.84495135972892</v>
       </c>
       <c r="K15" t="n">
-        <v>218.380115457453</v>
+        <v>252.1236645012131</v>
       </c>
       <c r="L15" t="n">
-        <v>527.0151936450702</v>
+        <v>560.7587426888304</v>
       </c>
       <c r="M15" t="n">
-        <v>939.9779665885651</v>
+        <v>973.7215156323252</v>
       </c>
       <c r="N15" t="n">
-        <v>1119.003572684071</v>
+        <v>1002.223653008449</v>
       </c>
       <c r="O15" t="n">
-        <v>1453.241363124536</v>
+        <v>1336.461443448914</v>
       </c>
       <c r="P15" t="n">
-        <v>1705.070115798443</v>
+        <v>1588.290196122821</v>
       </c>
       <c r="Q15" t="n">
         <v>1705.070115798443</v>
@@ -5385,22 +5385,22 @@
         <v>1663.108147655207</v>
       </c>
       <c r="T15" t="n">
-        <v>1587.289391284575</v>
+        <v>1463.868752815659</v>
       </c>
       <c r="U15" t="n">
-        <v>1366.501825711449</v>
+        <v>1243.081187242533</v>
       </c>
       <c r="V15" t="n">
         <v>1132.25058223705</v>
       </c>
       <c r="W15" t="n">
-        <v>879.7360905703832</v>
+        <v>1003.156729039299</v>
       </c>
       <c r="X15" t="n">
-        <v>673.2091919759607</v>
+        <v>920.0504689137923</v>
       </c>
       <c r="Y15" t="n">
-        <v>467.4807561996112</v>
+        <v>714.3220331374428</v>
       </c>
     </row>
     <row r="16">
@@ -5419,31 +5419,31 @@
         <v>191.7224970275859</v>
       </c>
       <c r="E16" t="n">
-        <v>166.6839191599369</v>
+        <v>166.6839191599368</v>
       </c>
       <c r="F16" t="n">
         <v>142.4691824674339</v>
       </c>
       <c r="G16" t="n">
-        <v>96.54294822101706</v>
+        <v>96.54294822101708</v>
       </c>
       <c r="H16" t="n">
-        <v>58.81795723378264</v>
+        <v>58.81795723378266</v>
       </c>
       <c r="I16" t="n">
         <v>34.10140231596885</v>
       </c>
       <c r="J16" t="n">
-        <v>83.64680624125509</v>
+        <v>83.64680624125504</v>
       </c>
       <c r="K16" t="n">
         <v>217.1507004046029</v>
       </c>
       <c r="L16" t="n">
-        <v>409.9649039573978</v>
+        <v>409.9649039573977</v>
       </c>
       <c r="M16" t="n">
-        <v>617.2777382207829</v>
+        <v>617.277738220783</v>
       </c>
       <c r="N16" t="n">
         <v>827.678665599504</v>
@@ -5467,13 +5467,13 @@
         <v>988.5828036872574</v>
       </c>
       <c r="U16" t="n">
-        <v>823.0747678369308</v>
+        <v>823.0747678369305</v>
       </c>
       <c r="V16" t="n">
-        <v>691.0041426018677</v>
+        <v>691.0041426018673</v>
       </c>
       <c r="W16" t="n">
-        <v>525.4423801744039</v>
+        <v>525.4423801744038</v>
       </c>
       <c r="X16" t="n">
         <v>420.4384126510881</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>965.2006267177223</v>
+        <v>965.2006267177222</v>
       </c>
       <c r="C17" t="n">
-        <v>819.9788576949633</v>
+        <v>819.9788576949632</v>
       </c>
       <c r="D17" t="n">
-        <v>685.2423037472994</v>
+        <v>685.2423037472993</v>
       </c>
       <c r="E17" t="n">
-        <v>523.7246356575253</v>
+        <v>523.7246356575251</v>
       </c>
       <c r="F17" t="n">
-        <v>337.7869395624447</v>
+        <v>337.7869395624446</v>
       </c>
       <c r="G17" t="n">
         <v>144.7438211337167</v>
@@ -5549,7 +5549,7 @@
         <v>1676.564967793297</v>
       </c>
       <c r="V17" t="n">
-        <v>1570.183475696218</v>
+        <v>1570.183475696217</v>
       </c>
       <c r="W17" t="n">
         <v>1441.582897257689</v>
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>438.3296271111444</v>
+        <v>621.367643875531</v>
       </c>
       <c r="C18" t="n">
-        <v>265.5765120329616</v>
+        <v>621.367643875531</v>
       </c>
       <c r="D18" t="n">
-        <v>117.9882053919055</v>
+        <v>473.779337234475</v>
       </c>
       <c r="E18" t="n">
-        <v>117.9882053919055</v>
+        <v>316.1698082373297</v>
       </c>
       <c r="F18" t="n">
-        <v>34.10140231596885</v>
+        <v>171.2140182539466</v>
       </c>
       <c r="G18" t="n">
         <v>34.10140231596885</v>
@@ -5592,22 +5592,22 @@
         <v>34.10140231596885</v>
       </c>
       <c r="J18" t="n">
-        <v>34.10140231596885</v>
+        <v>67.84495135972892</v>
       </c>
       <c r="K18" t="n">
-        <v>34.10140231596885</v>
+        <v>252.1236645012131</v>
       </c>
       <c r="L18" t="n">
-        <v>342.7364805035861</v>
+        <v>560.7587426888304</v>
       </c>
       <c r="M18" t="n">
-        <v>755.699253447081</v>
+        <v>973.7215156323252</v>
       </c>
       <c r="N18" t="n">
-        <v>1177.704107107196</v>
+        <v>1002.223653008449</v>
       </c>
       <c r="O18" t="n">
-        <v>1511.94189754766</v>
+        <v>1336.461443448914</v>
       </c>
       <c r="P18" t="n">
         <v>1588.290196122821</v>
@@ -5619,25 +5619,25 @@
         <v>1705.070115798443</v>
       </c>
       <c r="S18" t="n">
-        <v>1705.070115798443</v>
+        <v>1539.687509186291</v>
       </c>
       <c r="T18" t="n">
-        <v>1505.830720958895</v>
+        <v>1340.448114346743</v>
       </c>
       <c r="U18" t="n">
-        <v>1504.393247744543</v>
+        <v>1339.010641132391</v>
       </c>
       <c r="V18" t="n">
-        <v>1270.142004270144</v>
+        <v>1330.229644472549</v>
       </c>
       <c r="W18" t="n">
-        <v>1017.627512603477</v>
+        <v>1077.715152805882</v>
       </c>
       <c r="X18" t="n">
-        <v>811.1006140090544</v>
+        <v>994.138630773441</v>
       </c>
       <c r="Y18" t="n">
-        <v>605.3721782327049</v>
+        <v>788.4101949970915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>195.2470317721191</v>
+        <v>34.10140231596885</v>
       </c>
       <c r="C19" t="n">
-        <v>195.2470317721191</v>
+        <v>34.10140231596885</v>
       </c>
       <c r="D19" t="n">
-        <v>195.2470317721191</v>
+        <v>34.10140231596885</v>
       </c>
       <c r="E19" t="n">
-        <v>195.2470317721191</v>
+        <v>34.10140231596885</v>
       </c>
       <c r="F19" t="n">
-        <v>195.2470317721191</v>
+        <v>34.10140231596885</v>
       </c>
       <c r="G19" t="n">
-        <v>195.2470317721191</v>
+        <v>34.10140231596885</v>
       </c>
       <c r="H19" t="n">
         <v>34.10140231596885</v>
@@ -5713,10 +5713,10 @@
         <v>234.7471308684387</v>
       </c>
       <c r="X19" t="n">
-        <v>195.2470317721191</v>
+        <v>34.10140231596885</v>
       </c>
       <c r="Y19" t="n">
-        <v>195.2470317721191</v>
+        <v>34.10140231596885</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>965.2006267177228</v>
+        <v>965.2006267177221</v>
       </c>
       <c r="C20" t="n">
-        <v>819.9788576949634</v>
+        <v>819.978857694963</v>
       </c>
       <c r="D20" t="n">
-        <v>685.2423037472995</v>
+        <v>685.2423037472992</v>
       </c>
       <c r="E20" t="n">
-        <v>523.7246356575254</v>
+        <v>523.7246356575253</v>
       </c>
       <c r="F20" t="n">
-        <v>337.7869395624448</v>
+        <v>337.7869395624447</v>
       </c>
       <c r="G20" t="n">
         <v>144.7438211337167</v>
       </c>
       <c r="H20" t="n">
-        <v>34.10140231596886</v>
+        <v>34.10140231596885</v>
       </c>
       <c r="I20" t="n">
-        <v>34.10140231596886</v>
+        <v>34.10140231596885</v>
       </c>
       <c r="J20" t="n">
         <v>77.69072816999105</v>
@@ -5756,10 +5756,10 @@
         <v>265.2964209897037</v>
       </c>
       <c r="L20" t="n">
-        <v>550.0069502858451</v>
+        <v>550.0069502858448</v>
       </c>
       <c r="M20" t="n">
-        <v>882.0145658318188</v>
+        <v>882.0145658318186</v>
       </c>
       <c r="N20" t="n">
         <v>1203.877236708332</v>
@@ -5768,7 +5768,7 @@
         <v>1461.674678503433</v>
       </c>
       <c r="P20" t="n">
-        <v>1644.760037552938</v>
+        <v>1644.760037552937</v>
       </c>
       <c r="Q20" t="n">
         <v>1705.070115798443</v>
@@ -5792,10 +5792,10 @@
         <v>1441.582897257689</v>
       </c>
       <c r="X20" t="n">
-        <v>1292.445468182176</v>
+        <v>1292.445468182175</v>
       </c>
       <c r="Y20" t="n">
-        <v>1127.322713227808</v>
+        <v>1127.322713227807</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5805,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>284.4342735634716</v>
+        <v>745.3412191467853</v>
       </c>
       <c r="C21" t="n">
-        <v>111.6811584852888</v>
+        <v>572.5881040686024</v>
       </c>
       <c r="D21" t="n">
-        <v>111.6811584852888</v>
+        <v>424.9997974275462</v>
       </c>
       <c r="E21" t="n">
-        <v>111.6811584852888</v>
+        <v>424.9997974275462</v>
       </c>
       <c r="F21" t="n">
-        <v>111.6811584852888</v>
+        <v>280.0440074441631</v>
       </c>
       <c r="G21" t="n">
-        <v>111.6811584852888</v>
+        <v>142.9313915061854</v>
       </c>
       <c r="H21" t="n">
-        <v>111.6811584852888</v>
+        <v>34.10140231596885</v>
       </c>
       <c r="I21" t="n">
-        <v>34.10140231596886</v>
+        <v>34.10140231596885</v>
       </c>
       <c r="J21" t="n">
-        <v>42.95090742526727</v>
+        <v>67.84495135972892</v>
       </c>
       <c r="K21" t="n">
-        <v>227.2296205667514</v>
+        <v>252.1236645012131</v>
       </c>
       <c r="L21" t="n">
-        <v>535.8646987543686</v>
+        <v>560.7587426888304</v>
       </c>
       <c r="M21" t="n">
-        <v>948.8274716978636</v>
+        <v>580.2187993483344</v>
       </c>
       <c r="N21" t="n">
-        <v>1370.832325357978</v>
+        <v>1002.223653008449</v>
       </c>
       <c r="O21" t="n">
-        <v>1705.070115798443</v>
+        <v>1336.461443448914</v>
       </c>
       <c r="P21" t="n">
-        <v>1705.070115798443</v>
+        <v>1588.290196122821</v>
       </c>
       <c r="Q21" t="n">
         <v>1705.070115798443</v>
@@ -5856,25 +5856,25 @@
         <v>1627.086680441445</v>
       </c>
       <c r="S21" t="n">
-        <v>1627.086680441445</v>
+        <v>1461.704073829293</v>
       </c>
       <c r="T21" t="n">
-        <v>1577.405614225778</v>
+        <v>1461.704073829293</v>
       </c>
       <c r="U21" t="n">
-        <v>1350.49789419687</v>
+        <v>1234.796353800385</v>
       </c>
       <c r="V21" t="n">
-        <v>1116.246650722471</v>
+        <v>1000.545110325985</v>
       </c>
       <c r="W21" t="n">
-        <v>863.7321590558041</v>
+        <v>951.0696549231349</v>
       </c>
       <c r="X21" t="n">
-        <v>657.2052604613816</v>
+        <v>951.0696549231349</v>
       </c>
       <c r="Y21" t="n">
-        <v>451.4768246850321</v>
+        <v>745.3412191467853</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.10140231596886</v>
+        <v>231.7927716907638</v>
       </c>
       <c r="C22" t="n">
-        <v>34.10140231596886</v>
+        <v>231.7927716907638</v>
       </c>
       <c r="D22" t="n">
-        <v>34.10140231596886</v>
+        <v>231.7927716907638</v>
       </c>
       <c r="E22" t="n">
-        <v>34.10140231596886</v>
+        <v>231.7927716907638</v>
       </c>
       <c r="F22" t="n">
-        <v>34.10140231596886</v>
+        <v>231.7927716907638</v>
       </c>
       <c r="G22" t="n">
-        <v>34.10140231596886</v>
+        <v>182.2385957026984</v>
       </c>
       <c r="H22" t="n">
-        <v>34.10140231596886</v>
+        <v>182.2385957026984</v>
       </c>
       <c r="I22" t="n">
-        <v>34.10140231596886</v>
+        <v>34.10140231596885</v>
       </c>
       <c r="J22" t="n">
-        <v>34.10140231596886</v>
+        <v>34.10140231596885</v>
       </c>
       <c r="K22" t="n">
         <v>46.64072871593233</v>
       </c>
       <c r="L22" t="n">
-        <v>118.4903645053429</v>
+        <v>118.4903645053428</v>
       </c>
       <c r="M22" t="n">
-        <v>204.8386310053438</v>
+        <v>204.8386310053437</v>
       </c>
       <c r="N22" t="n">
         <v>294.2749906206805</v>
@@ -5947,13 +5947,13 @@
         <v>298.2592849502613</v>
       </c>
       <c r="W22" t="n">
-        <v>37.05576149364374</v>
+        <v>234.7471308684387</v>
       </c>
       <c r="X22" t="n">
-        <v>34.10140231596886</v>
+        <v>231.7927716907638</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.10140231596886</v>
+        <v>231.7927716907638</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>965.2006267177222</v>
+        <v>965.2006267177226</v>
       </c>
       <c r="C23" t="n">
-        <v>819.9788576949632</v>
+        <v>819.9788576949635</v>
       </c>
       <c r="D23" t="n">
-        <v>685.2423037472993</v>
+        <v>685.2423037472997</v>
       </c>
       <c r="E23" t="n">
-        <v>523.7246356575251</v>
+        <v>523.7246356575256</v>
       </c>
       <c r="F23" t="n">
-        <v>337.7869395624446</v>
+        <v>337.786939562445</v>
       </c>
       <c r="G23" t="n">
         <v>144.7438211337167</v>
@@ -5987,16 +5987,16 @@
         <v>34.10140231596885</v>
       </c>
       <c r="J23" t="n">
-        <v>77.69072816999119</v>
+        <v>77.69072816999108</v>
       </c>
       <c r="K23" t="n">
         <v>265.2964209897038</v>
       </c>
       <c r="L23" t="n">
-        <v>550.0069502858448</v>
+        <v>550.0069502858449</v>
       </c>
       <c r="M23" t="n">
-        <v>882.0145658318186</v>
+        <v>882.0145658318187</v>
       </c>
       <c r="N23" t="n">
         <v>1203.877236708332</v>
@@ -6029,7 +6029,7 @@
         <v>1441.582897257689</v>
       </c>
       <c r="X23" t="n">
-        <v>1292.445468182175</v>
+        <v>1292.445468182176</v>
       </c>
       <c r="Y23" t="n">
         <v>1127.322713227807</v>
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>576.9783701879109</v>
+        <v>561.8347841068733</v>
       </c>
       <c r="C24" t="n">
-        <v>404.225255109728</v>
+        <v>561.8347841068733</v>
       </c>
       <c r="D24" t="n">
-        <v>256.6369484686719</v>
+        <v>414.2464774658172</v>
       </c>
       <c r="E24" t="n">
         <v>256.6369484686719</v>
@@ -6066,52 +6066,52 @@
         <v>34.10140231596885</v>
       </c>
       <c r="J24" t="n">
-        <v>42.95090742526727</v>
+        <v>67.84495135972892</v>
       </c>
       <c r="K24" t="n">
-        <v>227.2296205667514</v>
+        <v>252.1236645012131</v>
       </c>
       <c r="L24" t="n">
-        <v>535.8646987543686</v>
+        <v>560.7587426888304</v>
       </c>
       <c r="M24" t="n">
-        <v>948.8274716978635</v>
+        <v>973.7215156323252</v>
       </c>
       <c r="N24" t="n">
-        <v>1370.832325357978</v>
+        <v>1002.223653008449</v>
       </c>
       <c r="O24" t="n">
-        <v>1705.070115798443</v>
+        <v>1336.461443448914</v>
       </c>
       <c r="P24" t="n">
-        <v>1705.070115798443</v>
+        <v>1588.290196122821</v>
       </c>
       <c r="Q24" t="n">
         <v>1705.070115798443</v>
       </c>
       <c r="R24" t="n">
-        <v>1705.070115798443</v>
+        <v>1627.086680441445</v>
       </c>
       <c r="S24" t="n">
-        <v>1705.070115798443</v>
+        <v>1461.704073829293</v>
       </c>
       <c r="T24" t="n">
-        <v>1705.070115798443</v>
+        <v>1423.607442178274</v>
       </c>
       <c r="U24" t="n">
-        <v>1643.041990821309</v>
+        <v>1196.699722149365</v>
       </c>
       <c r="V24" t="n">
-        <v>1408.79074734691</v>
+        <v>962.4484786749663</v>
       </c>
       <c r="W24" t="n">
-        <v>1156.276255680243</v>
+        <v>935.4042338228562</v>
       </c>
       <c r="X24" t="n">
-        <v>949.7493570858209</v>
+        <v>728.8773352284337</v>
       </c>
       <c r="Y24" t="n">
-        <v>744.0209213094713</v>
+        <v>728.8773352284337</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>67.37720216920648</v>
+        <v>106.9706644709512</v>
       </c>
       <c r="C25" t="n">
-        <v>67.37720216920648</v>
+        <v>106.9706644709512</v>
       </c>
       <c r="D25" t="n">
-        <v>67.37720216920648</v>
+        <v>106.9706644709512</v>
       </c>
       <c r="E25" t="n">
-        <v>67.37720216920648</v>
+        <v>106.9706644709512</v>
       </c>
       <c r="F25" t="n">
-        <v>67.37720216920648</v>
+        <v>106.9706644709512</v>
       </c>
       <c r="G25" t="n">
-        <v>67.37720216920648</v>
+        <v>106.9706644709512</v>
       </c>
       <c r="H25" t="n">
-        <v>67.37720216920648</v>
+        <v>106.9706644709512</v>
       </c>
       <c r="I25" t="n">
-        <v>34.10140231596885</v>
+        <v>106.9706644709512</v>
       </c>
       <c r="J25" t="n">
         <v>34.10140231596885</v>
@@ -6169,28 +6169,28 @@
         <v>395.887989750744</v>
       </c>
       <c r="R25" t="n">
-        <v>231.4724202291867</v>
+        <v>395.887989750744</v>
       </c>
       <c r="S25" t="n">
-        <v>231.4724202291867</v>
+        <v>395.887989750744</v>
       </c>
       <c r="T25" t="n">
-        <v>227.3231598228119</v>
+        <v>391.7387293443692</v>
       </c>
       <c r="U25" t="n">
-        <v>163.8647323181262</v>
+        <v>328.2803018396835</v>
       </c>
       <c r="V25" t="n">
-        <v>133.843715428704</v>
+        <v>298.2592849502613</v>
       </c>
       <c r="W25" t="n">
-        <v>70.33156134688136</v>
+        <v>234.7471308684387</v>
       </c>
       <c r="X25" t="n">
-        <v>67.37720216920648</v>
+        <v>231.7927716907638</v>
       </c>
       <c r="Y25" t="n">
-        <v>67.37720216920648</v>
+        <v>106.9706644709512</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>1296.626373865127</v>
       </c>
       <c r="D26" t="n">
-        <v>1079.942198442601</v>
+        <v>1079.9421984426</v>
       </c>
       <c r="E26" t="n">
-        <v>836.4769088779643</v>
+        <v>836.4769088779638</v>
       </c>
       <c r="F26" t="n">
-        <v>568.5915913080212</v>
+        <v>568.5915913080207</v>
       </c>
       <c r="G26" t="n">
-        <v>293.6008514044306</v>
+        <v>293.6008514044302</v>
       </c>
       <c r="H26" t="n">
         <v>101.0108111118196</v>
@@ -6224,13 +6224,13 @@
         <v>57.74039297348499</v>
       </c>
       <c r="J26" t="n">
-        <v>241.9962439229414</v>
+        <v>241.9962439229416</v>
       </c>
       <c r="K26" t="n">
-        <v>570.2684618380883</v>
+        <v>570.2684618380885</v>
       </c>
       <c r="L26" t="n">
-        <v>995.6455162296636</v>
+        <v>995.6455162296637</v>
       </c>
       <c r="M26" t="n">
         <v>1468.319656871072</v>
@@ -6251,25 +6251,25 @@
         <v>2887.01964867425</v>
       </c>
       <c r="S26" t="n">
-        <v>2834.717463448007</v>
+        <v>2834.717463448005</v>
       </c>
       <c r="T26" t="n">
-        <v>2755.350982292645</v>
+        <v>2755.350982292644</v>
       </c>
       <c r="U26" t="n">
-        <v>2644.898212812636</v>
+        <v>2644.898212812635</v>
       </c>
       <c r="V26" t="n">
         <v>2456.569099240694</v>
       </c>
       <c r="W26" t="n">
-        <v>2246.020899327304</v>
+        <v>2246.020899327303</v>
       </c>
       <c r="X26" t="n">
-        <v>2014.935848776928</v>
+        <v>2014.935848776927</v>
       </c>
       <c r="Y26" t="n">
-        <v>1767.865472347697</v>
+        <v>1767.865472347696</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>690.966843025878</v>
+        <v>573.6016189516841</v>
       </c>
       <c r="C27" t="n">
-        <v>518.2137279476951</v>
+        <v>400.8485038735013</v>
       </c>
       <c r="D27" t="n">
-        <v>370.625421306639</v>
+        <v>396.7828225721393</v>
       </c>
       <c r="E27" t="n">
-        <v>213.0158923094937</v>
+        <v>382.6959189146881</v>
       </c>
       <c r="F27" t="n">
-        <v>68.06010232611055</v>
+        <v>381.2627542709991</v>
       </c>
       <c r="G27" t="n">
-        <v>68.06010232611055</v>
+        <v>244.1501383330214</v>
       </c>
       <c r="H27" t="n">
-        <v>68.06010232611055</v>
+        <v>135.3201491428049</v>
       </c>
       <c r="I27" t="n">
         <v>57.74039297348499</v>
@@ -6333,22 +6333,22 @@
         <v>1896.132327848345</v>
       </c>
       <c r="T27" t="n">
-        <v>1840.415558348491</v>
+        <v>1696.892933008797</v>
       </c>
       <c r="U27" t="n">
-        <v>1757.030463659277</v>
+        <v>1469.985212979888</v>
       </c>
       <c r="V27" t="n">
-        <v>1522.779220184877</v>
+        <v>1235.733969505489</v>
       </c>
       <c r="W27" t="n">
-        <v>1270.264728518211</v>
+        <v>1009.376879104323</v>
       </c>
       <c r="X27" t="n">
-        <v>1063.737829923788</v>
+        <v>946.3726058495942</v>
       </c>
       <c r="Y27" t="n">
-        <v>858.0093941474385</v>
+        <v>740.6441700732446</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>147.3437970414402</v>
+        <v>147.3437970414404</v>
       </c>
       <c r="C28" t="n">
-        <v>121.8396012385057</v>
+        <v>121.8396012385058</v>
       </c>
       <c r="D28" t="n">
-        <v>114.8515533312106</v>
+        <v>114.8515533312107</v>
       </c>
       <c r="E28" t="n">
-        <v>109.9149623343398</v>
+        <v>109.91496233434</v>
       </c>
       <c r="F28" t="n">
-        <v>105.8022125126153</v>
+        <v>105.8022125126154</v>
       </c>
       <c r="G28" t="n">
-        <v>79.97796513697654</v>
+        <v>79.97796513697659</v>
       </c>
       <c r="H28" t="n">
-        <v>62.35496102052045</v>
+        <v>62.35496102052048</v>
       </c>
       <c r="I28" t="n">
         <v>57.74039297348499</v>
       </c>
       <c r="J28" t="n">
-        <v>126.987754230821</v>
+        <v>57.74039297348499</v>
       </c>
       <c r="K28" t="n">
-        <v>280.1936057262187</v>
+        <v>163.5621350475126</v>
       </c>
       <c r="L28" t="n">
-        <v>435.4618933085139</v>
+        <v>376.0782959323573</v>
       </c>
       <c r="M28" t="n">
-        <v>521.8101598085148</v>
+        <v>462.4265624323582</v>
       </c>
       <c r="N28" t="n">
-        <v>611.2465194238515</v>
+        <v>692.5294471431291</v>
       </c>
       <c r="O28" t="n">
-        <v>678.5188766674647</v>
+        <v>900.4683294821765</v>
       </c>
       <c r="P28" t="n">
-        <v>853.5260436493493</v>
+        <v>934.8089713686269</v>
       </c>
       <c r="Q28" t="n">
-        <v>934.8089713686262</v>
+        <v>934.8089713686269</v>
       </c>
       <c r="R28" t="n">
-        <v>913.916027186763</v>
+        <v>913.9160271867637</v>
       </c>
       <c r="S28" t="n">
-        <v>836.9928469058924</v>
+        <v>836.992846905893</v>
       </c>
       <c r="T28" t="n">
-        <v>750.8959650246551</v>
+        <v>750.8959650246555</v>
       </c>
       <c r="U28" t="n">
-        <v>605.4899160451068</v>
+        <v>605.4899160451073</v>
       </c>
       <c r="V28" t="n">
-        <v>493.521277680822</v>
+        <v>493.5212776808224</v>
       </c>
       <c r="W28" t="n">
-        <v>348.0615021241368</v>
+        <v>348.0615021241372</v>
       </c>
       <c r="X28" t="n">
-        <v>263.1595214715994</v>
+        <v>263.1595214715997</v>
       </c>
       <c r="Y28" t="n">
-        <v>185.7238903792044</v>
+        <v>185.7238903792047</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1523.79576436275</v>
+        <v>1523.795764362749</v>
       </c>
       <c r="C29" t="n">
         <v>1296.626373865128</v>
@@ -6446,58 +6446,58 @@
         <v>1079.942198442601</v>
       </c>
       <c r="E29" t="n">
-        <v>836.4769088779644</v>
+        <v>836.476908877964</v>
       </c>
       <c r="F29" t="n">
-        <v>568.5915913080213</v>
+        <v>568.5915913080207</v>
       </c>
       <c r="G29" t="n">
-        <v>293.6008514044307</v>
+        <v>293.6008514044302</v>
       </c>
       <c r="H29" t="n">
-        <v>101.0108111118202</v>
+        <v>101.0108111118196</v>
       </c>
       <c r="I29" t="n">
         <v>57.74039297348499</v>
       </c>
       <c r="J29" t="n">
-        <v>241.9962439229421</v>
+        <v>241.9962439229412</v>
       </c>
       <c r="K29" t="n">
-        <v>570.2684618380888</v>
+        <v>570.2684618380881</v>
       </c>
       <c r="L29" t="n">
-        <v>995.6455162296641</v>
+        <v>995.6455162296634</v>
       </c>
       <c r="M29" t="n">
-        <v>1468.319656871073</v>
+        <v>1468.319656871071</v>
       </c>
       <c r="N29" t="n">
-        <v>1930.84885284302</v>
+        <v>1930.848852843019</v>
       </c>
       <c r="O29" t="n">
-        <v>2329.312819733555</v>
+        <v>2329.312819733554</v>
       </c>
       <c r="P29" t="n">
-        <v>2653.064703878494</v>
+        <v>2653.064703878493</v>
       </c>
       <c r="Q29" t="n">
-        <v>2854.041307219433</v>
+        <v>2854.041307219432</v>
       </c>
       <c r="R29" t="n">
-        <v>2887.01964867425</v>
+        <v>2887.019648674249</v>
       </c>
       <c r="S29" t="n">
-        <v>2834.717463448006</v>
+        <v>2834.717463448005</v>
       </c>
       <c r="T29" t="n">
         <v>2755.350982292645</v>
       </c>
       <c r="U29" t="n">
-        <v>2644.898212812637</v>
+        <v>2644.898212812636</v>
       </c>
       <c r="V29" t="n">
-        <v>2456.569099240695</v>
+        <v>2456.569099240694</v>
       </c>
       <c r="W29" t="n">
         <v>2246.020899327304</v>
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>680.6471336732524</v>
+        <v>1004.169494970766</v>
       </c>
       <c r="C30" t="n">
-        <v>507.8940185950696</v>
+        <v>831.4163798925836</v>
       </c>
       <c r="D30" t="n">
-        <v>360.3057119540134</v>
+        <v>683.8280732515275</v>
       </c>
       <c r="E30" t="n">
-        <v>202.6961829568681</v>
+        <v>526.2185442543822</v>
       </c>
       <c r="F30" t="n">
-        <v>57.74039297348499</v>
+        <v>381.2627542709991</v>
       </c>
       <c r="G30" t="n">
-        <v>57.74039297348499</v>
+        <v>244.1501383330214</v>
       </c>
       <c r="H30" t="n">
-        <v>57.74039297348499</v>
+        <v>135.3201491428049</v>
       </c>
       <c r="I30" t="n">
         <v>57.74039297348499</v>
       </c>
       <c r="J30" t="n">
-        <v>91.48394201724507</v>
+        <v>91.48394201724506</v>
       </c>
       <c r="K30" t="n">
         <v>275.7626551587292</v>
@@ -6564,28 +6564,28 @@
         <v>2139.498369817495</v>
       </c>
       <c r="R30" t="n">
-        <v>2139.498369817495</v>
+        <v>2061.514934460497</v>
       </c>
       <c r="S30" t="n">
-        <v>1974.115763205343</v>
+        <v>1896.132327848345</v>
       </c>
       <c r="T30" t="n">
-        <v>1918.398993705489</v>
+        <v>1696.892933008797</v>
       </c>
       <c r="U30" t="n">
-        <v>1746.710754306651</v>
+        <v>1496.142614245388</v>
       </c>
       <c r="V30" t="n">
-        <v>1512.459510832251</v>
+        <v>1405.413996110683</v>
       </c>
       <c r="W30" t="n">
-        <v>1259.945019165585</v>
+        <v>1296.422129783711</v>
       </c>
       <c r="X30" t="n">
-        <v>1053.418120571162</v>
+        <v>1233.417856528982</v>
       </c>
       <c r="Y30" t="n">
-        <v>847.6896847948128</v>
+        <v>1171.212046092327</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>147.3437970414406</v>
+        <v>147.3437970414404</v>
       </c>
       <c r="C31" t="n">
-        <v>121.839601238506</v>
+        <v>121.8396012385058</v>
       </c>
       <c r="D31" t="n">
-        <v>114.8515533312108</v>
+        <v>114.8515533312107</v>
       </c>
       <c r="E31" t="n">
-        <v>109.9149623343401</v>
+        <v>109.9149623343399</v>
       </c>
       <c r="F31" t="n">
-        <v>105.8022125126155</v>
+        <v>105.8022125126154</v>
       </c>
       <c r="G31" t="n">
-        <v>79.97796513697665</v>
+        <v>79.97796513697658</v>
       </c>
       <c r="H31" t="n">
-        <v>62.35496102052051</v>
+        <v>62.35496102052047</v>
       </c>
       <c r="I31" t="n">
         <v>57.74039297348499</v>
@@ -6622,49 +6622,49 @@
         <v>126.987754230821</v>
       </c>
       <c r="K31" t="n">
-        <v>139.5270806307844</v>
+        <v>139.5270806307845</v>
       </c>
       <c r="L31" t="n">
-        <v>294.7953682130808</v>
+        <v>211.376716420195</v>
       </c>
       <c r="M31" t="n">
-        <v>381.1436347130817</v>
+        <v>438.3915080156301</v>
       </c>
       <c r="N31" t="n">
-        <v>470.5799943284184</v>
+        <v>668.494392726401</v>
       </c>
       <c r="O31" t="n">
-        <v>678.5188766674657</v>
+        <v>735.7667499700142</v>
       </c>
       <c r="P31" t="n">
-        <v>853.5260436493503</v>
+        <v>910.7739169518987</v>
       </c>
       <c r="Q31" t="n">
-        <v>934.8089713686272</v>
+        <v>934.8089713686268</v>
       </c>
       <c r="R31" t="n">
-        <v>913.916027186764</v>
+        <v>913.9160271867636</v>
       </c>
       <c r="S31" t="n">
-        <v>836.9928469058933</v>
+        <v>836.9928469058929</v>
       </c>
       <c r="T31" t="n">
-        <v>750.8959650246559</v>
+        <v>750.8959650246554</v>
       </c>
       <c r="U31" t="n">
-        <v>605.4899160451075</v>
+        <v>605.4899160451072</v>
       </c>
       <c r="V31" t="n">
-        <v>493.5212776808227</v>
+        <v>493.5212776808223</v>
       </c>
       <c r="W31" t="n">
-        <v>348.0615021241374</v>
+        <v>348.0615021241371</v>
       </c>
       <c r="X31" t="n">
-        <v>263.1595214715999</v>
+        <v>263.1595214715996</v>
       </c>
       <c r="Y31" t="n">
-        <v>185.7238903792049</v>
+        <v>185.7238903792046</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1523.795764362748</v>
+        <v>1523.795764362749</v>
       </c>
       <c r="C32" t="n">
-        <v>1296.626373865126</v>
+        <v>1296.626373865127</v>
       </c>
       <c r="D32" t="n">
-        <v>1079.942198442599</v>
+        <v>1079.942198442601</v>
       </c>
       <c r="E32" t="n">
-        <v>836.4769088779626</v>
+        <v>836.4769088779639</v>
       </c>
       <c r="F32" t="n">
-        <v>568.5915913080195</v>
+        <v>568.5915913080207</v>
       </c>
       <c r="G32" t="n">
-        <v>293.6008514044292</v>
+        <v>293.6008514044302</v>
       </c>
       <c r="H32" t="n">
-        <v>101.0108111118197</v>
+        <v>101.0108111118196</v>
       </c>
       <c r="I32" t="n">
         <v>57.74039297348499</v>
       </c>
       <c r="J32" t="n">
-        <v>241.9962439229413</v>
+        <v>241.9962439229412</v>
       </c>
       <c r="K32" t="n">
-        <v>570.2684618380886</v>
+        <v>570.2684618380881</v>
       </c>
       <c r="L32" t="n">
-        <v>995.6455162296638</v>
+        <v>995.6455162296634</v>
       </c>
       <c r="M32" t="n">
-        <v>1468.319656871072</v>
+        <v>1468.319656871071</v>
       </c>
       <c r="N32" t="n">
         <v>1930.848852843019</v>
       </c>
       <c r="O32" t="n">
-        <v>2329.312819733555</v>
+        <v>2329.312819733554</v>
       </c>
       <c r="P32" t="n">
         <v>2653.064703878493</v>
       </c>
       <c r="Q32" t="n">
-        <v>2854.041307219433</v>
+        <v>2854.041307219432</v>
       </c>
       <c r="R32" t="n">
-        <v>2887.01964867425</v>
+        <v>2887.019648674249</v>
       </c>
       <c r="S32" t="n">
-        <v>2834.717463448006</v>
+        <v>2834.717463448005</v>
       </c>
       <c r="T32" t="n">
         <v>2755.350982292645</v>
       </c>
       <c r="U32" t="n">
-        <v>2644.898212812635</v>
+        <v>2644.898212812636</v>
       </c>
       <c r="V32" t="n">
-        <v>2456.569099240694</v>
+        <v>2456.569099240695</v>
       </c>
       <c r="W32" t="n">
-        <v>2246.020899327302</v>
+        <v>2246.020899327304</v>
       </c>
       <c r="X32" t="n">
-        <v>2014.935848776926</v>
+        <v>2014.935848776927</v>
       </c>
       <c r="Y32" t="n">
-        <v>1767.865472347695</v>
+        <v>1767.865472347696</v>
       </c>
     </row>
     <row r="33">
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>817.7597496112301</v>
+        <v>580.0116283534006</v>
       </c>
       <c r="C33" t="n">
-        <v>645.0066345330472</v>
+        <v>550.7811386149119</v>
       </c>
       <c r="D33" t="n">
-        <v>497.4183278919911</v>
+        <v>403.1928319738557</v>
       </c>
       <c r="E33" t="n">
-        <v>339.8087988948458</v>
+        <v>389.1059283164045</v>
       </c>
       <c r="F33" t="n">
-        <v>194.8530089114627</v>
+        <v>244.1501383330214</v>
       </c>
       <c r="G33" t="n">
-        <v>57.74039297348499</v>
+        <v>244.1501383330214</v>
       </c>
       <c r="H33" t="n">
-        <v>57.74039297348499</v>
+        <v>135.3201491428049</v>
       </c>
       <c r="I33" t="n">
         <v>57.74039297348499</v>
       </c>
       <c r="J33" t="n">
-        <v>91.48394201724507</v>
+        <v>91.48394201724506</v>
       </c>
       <c r="K33" t="n">
         <v>275.7626551587292</v>
@@ -6804,25 +6804,25 @@
         <v>2139.498369817495</v>
       </c>
       <c r="S33" t="n">
-        <v>2117.638388545037</v>
+        <v>1974.115763205343</v>
       </c>
       <c r="T33" t="n">
-        <v>2061.921619045183</v>
+        <v>1774.876368365795</v>
       </c>
       <c r="U33" t="n">
-        <v>1883.823370244628</v>
+        <v>1547.968648336886</v>
       </c>
       <c r="V33" t="n">
-        <v>1649.572126770229</v>
+        <v>1313.717404862487</v>
       </c>
       <c r="W33" t="n">
-        <v>1397.057635103562</v>
+        <v>1061.20291319582</v>
       </c>
       <c r="X33" t="n">
-        <v>1190.53073650914</v>
+        <v>952.7826152513106</v>
       </c>
       <c r="Y33" t="n">
-        <v>984.8023007327905</v>
+        <v>747.0541794749611</v>
       </c>
     </row>
     <row r="34">
@@ -6844,13 +6844,13 @@
         <v>109.9149623343401</v>
       </c>
       <c r="F34" t="n">
-        <v>105.8022125126155</v>
+        <v>105.8022125126154</v>
       </c>
       <c r="G34" t="n">
-        <v>79.97796513697665</v>
+        <v>79.97796513697664</v>
       </c>
       <c r="H34" t="n">
-        <v>62.35496102052051</v>
+        <v>62.3549610205205</v>
       </c>
       <c r="I34" t="n">
         <v>57.74039297348499</v>
@@ -6859,22 +6859,22 @@
         <v>126.987754230821</v>
       </c>
       <c r="K34" t="n">
-        <v>139.5270806307844</v>
+        <v>280.1936057262186</v>
       </c>
       <c r="L34" t="n">
-        <v>352.0432415156291</v>
+        <v>492.7097666110633</v>
       </c>
       <c r="M34" t="n">
-        <v>438.39150801563</v>
+        <v>579.0580331110642</v>
       </c>
       <c r="N34" t="n">
-        <v>527.8278676309667</v>
+        <v>668.494392726401</v>
       </c>
       <c r="O34" t="n">
-        <v>678.5188766674657</v>
+        <v>735.7667499700142</v>
       </c>
       <c r="P34" t="n">
-        <v>853.5260436493503</v>
+        <v>910.7739169518987</v>
       </c>
       <c r="Q34" t="n">
         <v>934.8089713686272</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>965.2006267177226</v>
+        <v>965.2006267177227</v>
       </c>
       <c r="C35" t="n">
-        <v>819.9788576949635</v>
+        <v>819.9788576949637</v>
       </c>
       <c r="D35" t="n">
-        <v>685.2423037472996</v>
+        <v>685.2423037473</v>
       </c>
       <c r="E35" t="n">
-        <v>523.7246356575256</v>
+        <v>523.7246356575259</v>
       </c>
       <c r="F35" t="n">
-        <v>337.7869395624449</v>
+        <v>337.7869395624455</v>
       </c>
       <c r="G35" t="n">
         <v>144.7438211337166</v>
@@ -6935,10 +6935,10 @@
         <v>34.10140231596885</v>
       </c>
       <c r="J35" t="n">
-        <v>77.69072816999105</v>
+        <v>77.69072816999119</v>
       </c>
       <c r="K35" t="n">
-        <v>265.2964209897037</v>
+        <v>265.2964209897038</v>
       </c>
       <c r="L35" t="n">
         <v>550.0069502858448</v>
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>484.2550279375534</v>
+        <v>316.1698082373297</v>
       </c>
       <c r="C36" t="n">
-        <v>484.2550279375534</v>
+        <v>316.1698082373297</v>
       </c>
       <c r="D36" t="n">
-        <v>336.6667212964973</v>
+        <v>316.1698082373297</v>
       </c>
       <c r="E36" t="n">
-        <v>179.057192299352</v>
+        <v>316.1698082373297</v>
       </c>
       <c r="F36" t="n">
-        <v>34.10140231596885</v>
+        <v>171.2140182539466</v>
       </c>
       <c r="G36" t="n">
         <v>34.10140231596885</v>
@@ -7038,28 +7038,28 @@
         <v>1705.070115798443</v>
       </c>
       <c r="R36" t="n">
-        <v>1705.070115798443</v>
+        <v>1627.086680441445</v>
       </c>
       <c r="S36" t="n">
-        <v>1705.070115798443</v>
+        <v>1461.704073829293</v>
       </c>
       <c r="T36" t="n">
-        <v>1705.070115798443</v>
+        <v>1262.464678989745</v>
       </c>
       <c r="U36" t="n">
-        <v>1550.318648570952</v>
+        <v>1261.027205775393</v>
       </c>
       <c r="V36" t="n">
-        <v>1316.067405096553</v>
+        <v>1026.775962300994</v>
       </c>
       <c r="W36" t="n">
-        <v>1063.552913429886</v>
+        <v>774.2614706343271</v>
       </c>
       <c r="X36" t="n">
-        <v>857.0260148354633</v>
+        <v>567.7345720399046</v>
       </c>
       <c r="Y36" t="n">
-        <v>651.2975790591138</v>
+        <v>483.2123593588901</v>
       </c>
     </row>
     <row r="37">
@@ -7126,19 +7126,19 @@
         <v>391.7387293443693</v>
       </c>
       <c r="U37" t="n">
-        <v>328.2803018396837</v>
+        <v>130.5889324648883</v>
       </c>
       <c r="V37" t="n">
-        <v>298.2592849502615</v>
+        <v>100.5679155754661</v>
       </c>
       <c r="W37" t="n">
-        <v>234.7471308684389</v>
+        <v>37.05576149364362</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7927716907641</v>
+        <v>34.10140231596885</v>
       </c>
       <c r="Y37" t="n">
-        <v>216.0041209934273</v>
+        <v>34.10140231596885</v>
       </c>
     </row>
     <row r="38">
@@ -7154,16 +7154,16 @@
         <v>819.9788576949635</v>
       </c>
       <c r="D38" t="n">
-        <v>685.2423037472996</v>
+        <v>685.2423037472997</v>
       </c>
       <c r="E38" t="n">
         <v>523.7246356575256</v>
       </c>
       <c r="F38" t="n">
-        <v>337.7869395624449</v>
+        <v>337.786939562445</v>
       </c>
       <c r="G38" t="n">
-        <v>144.7438211337166</v>
+        <v>144.7438211337167</v>
       </c>
       <c r="H38" t="n">
         <v>34.10140231596885</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>657.0081430157362</v>
+        <v>843.4178883752727</v>
       </c>
       <c r="C39" t="n">
-        <v>484.2550279375534</v>
+        <v>670.6647732970898</v>
       </c>
       <c r="D39" t="n">
-        <v>336.6667212964973</v>
+        <v>523.0764666560337</v>
       </c>
       <c r="E39" t="n">
-        <v>179.057192299352</v>
+        <v>365.4669376588885</v>
       </c>
       <c r="F39" t="n">
-        <v>34.10140231596885</v>
+        <v>220.5111476755053</v>
       </c>
       <c r="G39" t="n">
-        <v>34.10140231596885</v>
+        <v>220.5111476755053</v>
       </c>
       <c r="H39" t="n">
-        <v>34.10140231596885</v>
+        <v>111.6811584852888</v>
       </c>
       <c r="I39" t="n">
         <v>34.10140231596885</v>
       </c>
       <c r="J39" t="n">
-        <v>34.10140231596885</v>
+        <v>67.84495135972892</v>
       </c>
       <c r="K39" t="n">
-        <v>34.10140231596885</v>
+        <v>252.1236645012131</v>
       </c>
       <c r="L39" t="n">
-        <v>342.7364805035861</v>
+        <v>252.1236645012131</v>
       </c>
       <c r="M39" t="n">
-        <v>755.699253447081</v>
+        <v>665.0864374447081</v>
       </c>
       <c r="N39" t="n">
-        <v>1177.704107107196</v>
+        <v>1087.091291104823</v>
       </c>
       <c r="O39" t="n">
-        <v>1511.94189754766</v>
+        <v>1336.461443448914</v>
       </c>
       <c r="P39" t="n">
-        <v>1705.070115798443</v>
+        <v>1588.290196122821</v>
       </c>
       <c r="Q39" t="n">
         <v>1705.070115798443</v>
       </c>
       <c r="R39" t="n">
-        <v>1705.070115798443</v>
+        <v>1627.086680441445</v>
       </c>
       <c r="S39" t="n">
-        <v>1705.070115798443</v>
+        <v>1627.086680441445</v>
       </c>
       <c r="T39" t="n">
-        <v>1705.070115798443</v>
+        <v>1627.086680441445</v>
       </c>
       <c r="U39" t="n">
-        <v>1703.632642584091</v>
+        <v>1625.649207227093</v>
       </c>
       <c r="V39" t="n">
-        <v>1488.820520174736</v>
+        <v>1391.397963752694</v>
       </c>
       <c r="W39" t="n">
-        <v>1236.306028508069</v>
+        <v>1364.353718900584</v>
       </c>
       <c r="X39" t="n">
-        <v>1029.779129913646</v>
+        <v>1216.188875273183</v>
       </c>
       <c r="Y39" t="n">
-        <v>824.0506941372967</v>
+        <v>1010.460439496833</v>
       </c>
     </row>
     <row r="40">
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.10140231596885</v>
+        <v>203.1282234585975</v>
       </c>
       <c r="C40" t="n">
         <v>34.10140231596885</v>
@@ -7351,31 +7351,31 @@
         <v>395.887989750744</v>
       </c>
       <c r="Q40" t="n">
-        <v>395.887989750744</v>
+        <v>367.2234415185777</v>
       </c>
       <c r="R40" t="n">
-        <v>395.887989750744</v>
+        <v>367.2234415185777</v>
       </c>
       <c r="S40" t="n">
-        <v>395.887989750744</v>
+        <v>367.2234415185777</v>
       </c>
       <c r="T40" t="n">
-        <v>391.7387293443693</v>
+        <v>363.0741811122029</v>
       </c>
       <c r="U40" t="n">
-        <v>130.5889324648884</v>
+        <v>299.6157536075172</v>
       </c>
       <c r="V40" t="n">
-        <v>100.5679155754663</v>
+        <v>269.594736718095</v>
       </c>
       <c r="W40" t="n">
-        <v>37.05576149364368</v>
+        <v>206.0825826362723</v>
       </c>
       <c r="X40" t="n">
-        <v>34.10140231596885</v>
+        <v>203.1282234585975</v>
       </c>
       <c r="Y40" t="n">
-        <v>34.10140231596885</v>
+        <v>203.1282234585975</v>
       </c>
     </row>
     <row r="41">
@@ -7385,61 +7385,61 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>981.3195846313452</v>
+        <v>981.3195846313456</v>
       </c>
       <c r="C41" t="n">
-        <v>833.5166752890843</v>
+        <v>833.5166752890848</v>
       </c>
       <c r="D41" t="n">
-        <v>696.1989810219188</v>
+        <v>696.1989810219194</v>
       </c>
       <c r="E41" t="n">
-        <v>532.1001726126431</v>
+        <v>532.1001726126436</v>
       </c>
       <c r="F41" t="n">
-        <v>343.5813361980609</v>
+        <v>343.5813361980614</v>
       </c>
       <c r="G41" t="n">
         <v>147.957077449831</v>
       </c>
       <c r="H41" t="n">
-        <v>34.73351831258151</v>
+        <v>34.73351831258153</v>
       </c>
       <c r="I41" t="n">
-        <v>34.73351831258151</v>
+        <v>65.70720214660248</v>
       </c>
       <c r="J41" t="n">
-        <v>109.2965280006235</v>
+        <v>109.2965280006247</v>
       </c>
       <c r="K41" t="n">
-        <v>296.9022208203363</v>
+        <v>296.9022208203374</v>
       </c>
       <c r="L41" t="n">
-        <v>581.6127501164774</v>
+        <v>581.6127501164785</v>
       </c>
       <c r="M41" t="n">
-        <v>913.6203656624511</v>
+        <v>913.6203656624523</v>
       </c>
       <c r="N41" t="n">
-        <v>1235.483036538965</v>
+        <v>1235.483036538966</v>
       </c>
       <c r="O41" t="n">
-        <v>1493.280478334065</v>
+        <v>1493.280478334067</v>
       </c>
       <c r="P41" t="n">
-        <v>1676.36583738357</v>
+        <v>1676.365837383571</v>
       </c>
       <c r="Q41" t="n">
-        <v>1736.675915629075</v>
+        <v>1736.675915629077</v>
       </c>
       <c r="R41" t="n">
-        <v>1736.675915629075</v>
+        <v>1736.675915629077</v>
       </c>
       <c r="S41" t="n">
-        <v>1736.675915629075</v>
+        <v>1736.675915629077</v>
       </c>
       <c r="T41" t="n">
-        <v>1736.675915629075</v>
+        <v>1736.675915629077</v>
       </c>
       <c r="U41" t="n">
         <v>1705.589627304428</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>657.6402590123489</v>
+        <v>835.4829738634471</v>
       </c>
       <c r="C42" t="n">
-        <v>484.8871439341661</v>
+        <v>662.7298587852642</v>
       </c>
       <c r="D42" t="n">
-        <v>337.29883729311</v>
+        <v>583.2414424213042</v>
       </c>
       <c r="E42" t="n">
-        <v>179.6893082959647</v>
+        <v>425.6319134241589</v>
       </c>
       <c r="F42" t="n">
-        <v>34.73351831258151</v>
+        <v>280.6761234407758</v>
       </c>
       <c r="G42" t="n">
-        <v>34.73351831258151</v>
+        <v>143.563507502798</v>
       </c>
       <c r="H42" t="n">
-        <v>34.73351831258151</v>
+        <v>34.73351831258153</v>
       </c>
       <c r="I42" t="n">
-        <v>34.73351831258151</v>
+        <v>34.73351831258153</v>
       </c>
       <c r="J42" t="n">
-        <v>34.73351831258151</v>
+        <v>68.47706735634161</v>
       </c>
       <c r="K42" t="n">
-        <v>34.73351831258151</v>
+        <v>252.7557804978258</v>
       </c>
       <c r="L42" t="n">
-        <v>307.8193104530123</v>
+        <v>561.3908586854429</v>
       </c>
       <c r="M42" t="n">
-        <v>720.7820833965072</v>
+        <v>974.3536316289378</v>
       </c>
       <c r="N42" t="n">
-        <v>1150.609372514703</v>
+        <v>1033.829452839083</v>
       </c>
       <c r="O42" t="n">
-        <v>1484.847162955168</v>
+        <v>1368.067243279547</v>
       </c>
       <c r="P42" t="n">
-        <v>1736.675915629075</v>
+        <v>1619.895995953455</v>
       </c>
       <c r="Q42" t="n">
-        <v>1736.675915629075</v>
+        <v>1736.675915629077</v>
       </c>
       <c r="R42" t="n">
-        <v>1736.675915629075</v>
+        <v>1658.692480272078</v>
       </c>
       <c r="S42" t="n">
-        <v>1736.675915629075</v>
+        <v>1493.309873659927</v>
       </c>
       <c r="T42" t="n">
-        <v>1736.675915629075</v>
+        <v>1493.309873659927</v>
       </c>
       <c r="U42" t="n">
-        <v>1723.703879645748</v>
+        <v>1489.291260126073</v>
       </c>
       <c r="V42" t="n">
-        <v>1489.452636171348</v>
+        <v>1255.040016651674</v>
       </c>
       <c r="W42" t="n">
-        <v>1236.938144504682</v>
+        <v>1002.525524985008</v>
       </c>
       <c r="X42" t="n">
-        <v>1030.411245910259</v>
+        <v>1002.525524985008</v>
       </c>
       <c r="Y42" t="n">
-        <v>824.6828101339094</v>
+        <v>1002.525524985008</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.73351831258151</v>
+        <v>34.73351831258153</v>
       </c>
       <c r="C43" t="n">
-        <v>34.73351831258151</v>
+        <v>34.73351831258153</v>
       </c>
       <c r="D43" t="n">
-        <v>34.73351831258151</v>
+        <v>34.73351831258153</v>
       </c>
       <c r="E43" t="n">
-        <v>34.73351831258151</v>
+        <v>34.73351831258153</v>
       </c>
       <c r="F43" t="n">
-        <v>34.73351831258151</v>
+        <v>34.73351831258153</v>
       </c>
       <c r="G43" t="n">
-        <v>34.73351831258151</v>
+        <v>34.73351831258153</v>
       </c>
       <c r="H43" t="n">
-        <v>34.73351831258151</v>
+        <v>34.73351831258153</v>
       </c>
       <c r="I43" t="n">
-        <v>34.73351831258151</v>
+        <v>34.73351831258153</v>
       </c>
       <c r="J43" t="n">
-        <v>34.73351831258151</v>
+        <v>34.73351831258153</v>
       </c>
       <c r="K43" t="n">
-        <v>47.27284471254498</v>
+        <v>47.272844712545</v>
       </c>
       <c r="L43" t="n">
         <v>119.1224805019555</v>
@@ -7597,22 +7597,22 @@
         <v>396.5201057473566</v>
       </c>
       <c r="T43" t="n">
-        <v>389.7897050214801</v>
+        <v>389.7897050214802</v>
       </c>
       <c r="U43" t="n">
         <v>323.7501371972928</v>
       </c>
       <c r="V43" t="n">
-        <v>291.1479799883688</v>
+        <v>291.1479799883689</v>
       </c>
       <c r="W43" t="n">
-        <v>222.1717364872165</v>
+        <v>40.26901780975808</v>
       </c>
       <c r="X43" t="n">
-        <v>216.6362369900399</v>
+        <v>34.73351831258153</v>
       </c>
       <c r="Y43" t="n">
-        <v>216.6362369900399</v>
+        <v>34.73351831258153</v>
       </c>
     </row>
     <row r="44">
@@ -7631,52 +7631,52 @@
         <v>696.1989810219188</v>
       </c>
       <c r="E44" t="n">
-        <v>532.100172612643</v>
+        <v>532.1001726126428</v>
       </c>
       <c r="F44" t="n">
-        <v>343.5813361980607</v>
+        <v>343.5813361980606</v>
       </c>
       <c r="G44" t="n">
         <v>147.957077449831</v>
       </c>
       <c r="H44" t="n">
-        <v>34.73351831258151</v>
+        <v>34.73351831258153</v>
       </c>
       <c r="I44" t="n">
-        <v>39.18148570647379</v>
+        <v>65.70720214660248</v>
       </c>
       <c r="J44" t="n">
-        <v>82.77081156049599</v>
+        <v>109.2965280006247</v>
       </c>
       <c r="K44" t="n">
-        <v>270.3765043802087</v>
+        <v>296.9022208203374</v>
       </c>
       <c r="L44" t="n">
-        <v>555.0870336763498</v>
+        <v>581.6127501164785</v>
       </c>
       <c r="M44" t="n">
-        <v>887.0946492223236</v>
+        <v>913.6203656624523</v>
       </c>
       <c r="N44" t="n">
-        <v>1208.957320098837</v>
+        <v>1235.483036538966</v>
       </c>
       <c r="O44" t="n">
-        <v>1466.754761893938</v>
+        <v>1493.280478334067</v>
       </c>
       <c r="P44" t="n">
-        <v>1649.840120943442</v>
+        <v>1676.365837383571</v>
       </c>
       <c r="Q44" t="n">
-        <v>1710.150199188948</v>
+        <v>1736.675915629077</v>
       </c>
       <c r="R44" t="n">
-        <v>1710.150199188948</v>
+        <v>1736.675915629077</v>
       </c>
       <c r="S44" t="n">
-        <v>1736.675915629075</v>
+        <v>1736.675915629077</v>
       </c>
       <c r="T44" t="n">
-        <v>1736.675915629075</v>
+        <v>1736.675915629077</v>
       </c>
       <c r="U44" t="n">
         <v>1705.589627304427</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>34.73351831258151</v>
+        <v>508.4985786045476</v>
       </c>
       <c r="C45" t="n">
-        <v>34.73351831258151</v>
+        <v>508.4985786045476</v>
       </c>
       <c r="D45" t="n">
-        <v>34.73351831258151</v>
+        <v>394.3816804032623</v>
       </c>
       <c r="E45" t="n">
-        <v>34.73351831258151</v>
+        <v>394.3816804032623</v>
       </c>
       <c r="F45" t="n">
-        <v>34.73351831258151</v>
+        <v>249.4258904198791</v>
       </c>
       <c r="G45" t="n">
-        <v>34.73351831258151</v>
+        <v>112.3132744819014</v>
       </c>
       <c r="H45" t="n">
-        <v>34.73351831258151</v>
+        <v>112.3132744819014</v>
       </c>
       <c r="I45" t="n">
-        <v>34.73351831258151</v>
+        <v>34.73351831258153</v>
       </c>
       <c r="J45" t="n">
-        <v>68.47706735634159</v>
+        <v>68.47706735634161</v>
       </c>
       <c r="K45" t="n">
-        <v>252.7557804978257</v>
+        <v>252.7557804978258</v>
       </c>
       <c r="L45" t="n">
         <v>561.3908586854429</v>
       </c>
       <c r="M45" t="n">
-        <v>720.7820833965072</v>
+        <v>974.3536316289378</v>
       </c>
       <c r="N45" t="n">
-        <v>1150.609372514703</v>
+        <v>1368.067243279547</v>
       </c>
       <c r="O45" t="n">
-        <v>1484.847162955168</v>
+        <v>1368.067243279547</v>
       </c>
       <c r="P45" t="n">
-        <v>1736.675915629075</v>
+        <v>1619.895995953455</v>
       </c>
       <c r="Q45" t="n">
-        <v>1736.675915629075</v>
+        <v>1736.675915629077</v>
       </c>
       <c r="R45" t="n">
-        <v>1658.692480272077</v>
+        <v>1736.675915629077</v>
       </c>
       <c r="S45" t="n">
-        <v>1493.309873659926</v>
+        <v>1571.293309016925</v>
       </c>
       <c r="T45" t="n">
-        <v>1294.070478820377</v>
+        <v>1372.053914177377</v>
       </c>
       <c r="U45" t="n">
-        <v>1100.79713894598</v>
+        <v>1368.035300643523</v>
       </c>
       <c r="V45" t="n">
-        <v>866.5458954715807</v>
+        <v>1133.784057169124</v>
       </c>
       <c r="W45" t="n">
-        <v>614.031403804914</v>
+        <v>881.2695655024576</v>
       </c>
       <c r="X45" t="n">
-        <v>407.5045052104915</v>
+        <v>881.2695655024576</v>
       </c>
       <c r="Y45" t="n">
-        <v>201.776069434142</v>
+        <v>675.541129726108</v>
       </c>
     </row>
     <row r="46">
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.73351831258151</v>
+        <v>34.73351831258153</v>
       </c>
       <c r="C46" t="n">
-        <v>34.73351831258151</v>
+        <v>34.73351831258153</v>
       </c>
       <c r="D46" t="n">
-        <v>34.73351831258151</v>
+        <v>34.73351831258153</v>
       </c>
       <c r="E46" t="n">
-        <v>34.73351831258151</v>
+        <v>34.73351831258153</v>
       </c>
       <c r="F46" t="n">
-        <v>34.73351831258151</v>
+        <v>34.73351831258153</v>
       </c>
       <c r="G46" t="n">
-        <v>34.73351831258151</v>
+        <v>34.73351831258153</v>
       </c>
       <c r="H46" t="n">
-        <v>34.73351831258151</v>
+        <v>34.73351831258153</v>
       </c>
       <c r="I46" t="n">
-        <v>34.73351831258151</v>
+        <v>34.73351831258153</v>
       </c>
       <c r="J46" t="n">
-        <v>34.73351831258151</v>
+        <v>34.73351831258153</v>
       </c>
       <c r="K46" t="n">
-        <v>47.27284471254498</v>
+        <v>47.272844712545</v>
       </c>
       <c r="L46" t="n">
         <v>119.1224805019555</v>
@@ -7840,16 +7840,16 @@
         <v>323.7501371972928</v>
       </c>
       <c r="V46" t="n">
-        <v>106.3623122110824</v>
+        <v>291.1479799883689</v>
       </c>
       <c r="W46" t="n">
-        <v>40.26901780975805</v>
+        <v>225.0546855870446</v>
       </c>
       <c r="X46" t="n">
-        <v>34.73351831258151</v>
+        <v>34.73351831258153</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.73351831258151</v>
+        <v>34.73351831258153</v>
       </c>
     </row>
   </sheetData>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>167.1856349036074</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K11" t="n">
         <v>337.1112290740114</v>
       </c>
       <c r="L11" t="n">
-        <v>434.3676631324684</v>
+        <v>425.69281825712</v>
       </c>
       <c r="M11" t="n">
         <v>467.4940748325458</v>
@@ -8766,19 +8766,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>131.1346767540252</v>
+        <v>97.05028378053015</v>
       </c>
       <c r="K12" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
-        <v>99.67197879331042</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M12" t="n">
-        <v>484.3332662999999</v>
+        <v>114.4561641273481</v>
       </c>
       <c r="N12" t="n">
-        <v>478.8640697279573</v>
+        <v>478.8640697279575</v>
       </c>
       <c r="O12" t="n">
         <v>409.6168120477987</v>
@@ -8787,7 +8787,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>100.5208644214226</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -8927,7 +8927,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1112290740114</v>
+        <v>337.1112290740112</v>
       </c>
       <c r="L14" t="n">
         <v>434.3676631324684</v>
@@ -9003,7 +9003,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>97.05028378053015</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
         <v>275.0438464930818</v>
@@ -9015,7 +9015,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N15" t="n">
-        <v>235.6213272545144</v>
+        <v>83.57741945715888</v>
       </c>
       <c r="O15" t="n">
         <v>409.6168120477987</v>
@@ -9024,7 +9024,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>100.5208644214226</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9240,10 +9240,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>97.05028378053015</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
-        <v>88.90373220875438</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
@@ -9252,13 +9252,13 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>481.0549106531092</v>
+        <v>83.57741945715888</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
-        <v>153.9482954474067</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q18" t="n">
         <v>218.4803792452831</v>
@@ -9404,7 +9404,7 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L20" t="n">
-        <v>434.3676631324686</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M20" t="n">
         <v>467.4940748325458</v>
@@ -9477,7 +9477,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>105.9891778303265</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
         <v>275.0438464930818</v>
@@ -9486,19 +9486,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
-        <v>484.3332662999999</v>
+        <v>86.8557751040496</v>
       </c>
       <c r="N21" t="n">
-        <v>481.0549106531093</v>
+        <v>481.0549106531092</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P21" t="n">
-        <v>76.82880193714342</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>100.5208644214226</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9714,7 +9714,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>105.9891778303265</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K24" t="n">
         <v>275.0438464930818</v>
@@ -9726,16 +9726,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>481.0549106531092</v>
+        <v>83.57741945715888</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
-        <v>76.82880193714342</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>100.5208644214226</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -10899,13 +10899,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>97.05028378053015</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K39" t="n">
-        <v>88.90373220875438</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L39" t="n">
-        <v>385.6739591155975</v>
+        <v>73.92135488568115</v>
       </c>
       <c r="M39" t="n">
         <v>484.3332662999999</v>
@@ -10914,13 +10914,13 @@
         <v>481.0549106531092</v>
       </c>
       <c r="O39" t="n">
-        <v>409.6168120477987</v>
+        <v>323.8919250817647</v>
       </c>
       <c r="P39" t="n">
-        <v>271.9078102712672</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>100.5208644214226</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11136,19 +11136,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>97.05028378053015</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
-        <v>88.90373220875438</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L42" t="n">
-        <v>349.7655893709648</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M42" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>488.9563606107674</v>
+        <v>114.863968784453</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
@@ -11157,7 +11157,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>100.5208644214226</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11382,19 +11382,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M45" t="n">
-        <v>228.2003892975448</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
-        <v>488.9563606107674</v>
+        <v>452.4778985222961</v>
       </c>
       <c r="O45" t="n">
-        <v>409.6168120477987</v>
+        <v>72.00288230995547</v>
       </c>
       <c r="P45" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
-        <v>100.5208644214226</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>244.798663594716</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>37.23184558682765</v>
       </c>
       <c r="E11" t="n">
-        <v>260.9316036710608</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>244.9462725498624</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>292.1417995066252</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>210.5651068917549</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.73868095902183</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,10 +23312,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>129.2492087872795</v>
       </c>
       <c r="V11" t="n">
-        <v>206.3467894382927</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>228.343684916328</v>
@@ -23324,7 +23324,7 @@
         <v>248.6751670469428</v>
       </c>
       <c r="Y11" t="n">
-        <v>264.5006396670092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>261.5299779071684</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>244.798663594716</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>199.38228667984</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>260.9316036710608</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>285.1074313963142</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>62.73868095902181</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>129.2492087872794</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>5.405918948700455</v>
+        <v>206.3467894382927</v>
       </c>
       <c r="W14" t="n">
-        <v>228.343684916328</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>248.6751670469428</v>
       </c>
       <c r="Y14" t="n">
-        <v>264.5006396670092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -26314,7 +26314,7 @@
         <v>304558.6416584026</v>
       </c>
       <c r="C2" t="n">
-        <v>304558.6416584027</v>
+        <v>304558.6416584028</v>
       </c>
       <c r="D2" t="n">
         <v>304558.6416584026</v>
@@ -26323,28 +26323,28 @@
         <v>261825.5151355102</v>
       </c>
       <c r="F2" t="n">
-        <v>262079.3062670605</v>
+        <v>262079.3062670607</v>
       </c>
       <c r="G2" t="n">
         <v>305219.7782306016</v>
       </c>
       <c r="H2" t="n">
+        <v>305219.7782306016</v>
+      </c>
+      <c r="I2" t="n">
+        <v>305219.7782306016</v>
+      </c>
+      <c r="J2" t="n">
+        <v>305219.7782306008</v>
+      </c>
+      <c r="K2" t="n">
+        <v>305219.7782306007</v>
+      </c>
+      <c r="L2" t="n">
+        <v>305219.7782306008</v>
+      </c>
+      <c r="M2" t="n">
         <v>305219.7782306015</v>
-      </c>
-      <c r="I2" t="n">
-        <v>305219.7782306014</v>
-      </c>
-      <c r="J2" t="n">
-        <v>305219.7782306009</v>
-      </c>
-      <c r="K2" t="n">
-        <v>305219.7782306008</v>
-      </c>
-      <c r="L2" t="n">
-        <v>305219.7782306009</v>
-      </c>
-      <c r="M2" t="n">
-        <v>305219.7782306016</v>
       </c>
       <c r="N2" t="n">
         <v>305219.7782306013</v>
@@ -26353,7 +26353,7 @@
         <v>305219.7782306015</v>
       </c>
       <c r="P2" t="n">
-        <v>305219.7782306012</v>
+        <v>305219.7782306015</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>329595.052705368</v>
       </c>
       <c r="F3" t="n">
-        <v>627.7328869200946</v>
+        <v>627.7328869200295</v>
       </c>
       <c r="G3" t="n">
-        <v>80823.28980974758</v>
+        <v>80823.2898097476</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>110159.1303542296</v>
+        <v>110159.1303542295</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>80823.28980974758</v>
+        <v>80823.28980974757</v>
       </c>
       <c r="M3" t="n">
-        <v>96947.48532284281</v>
+        <v>96947.48532284294</v>
       </c>
       <c r="N3" t="n">
-        <v>536.5960952746976</v>
+        <v>536.596095274551</v>
       </c>
       <c r="O3" t="n">
-        <v>32703.85816000516</v>
+        <v>32703.85816000526</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26433,7 +26433,7 @@
         <v>360823.0243176459</v>
       </c>
       <c r="H4" t="n">
-        <v>360823.024317646</v>
+        <v>360823.0243176459</v>
       </c>
       <c r="I4" t="n">
         <v>360823.0243176459</v>
@@ -26442,7 +26442,7 @@
         <v>359403.0198487455</v>
       </c>
       <c r="K4" t="n">
-        <v>359403.0198487455</v>
+        <v>359403.0198487454</v>
       </c>
       <c r="L4" t="n">
         <v>359403.0198487455</v>
@@ -26451,7 +26451,7 @@
         <v>360823.024317646</v>
       </c>
       <c r="N4" t="n">
-        <v>360823.024317646</v>
+        <v>360823.0243176459</v>
       </c>
       <c r="O4" t="n">
         <v>360645.5727760344</v>
@@ -26476,7 +26476,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>38911.21502510819</v>
+        <v>38911.2150251082</v>
       </c>
       <c r="F5" t="n">
         <v>39044.41815335743</v>
@@ -26494,10 +26494,10 @@
         <v>58683.10544796677</v>
       </c>
       <c r="K5" t="n">
-        <v>58683.10544796676</v>
+        <v>58683.10544796675</v>
       </c>
       <c r="L5" t="n">
-        <v>58683.10544796676</v>
+        <v>58683.10544796675</v>
       </c>
       <c r="M5" t="n">
         <v>47537.83459212702</v>
@@ -26506,10 +26506,10 @@
         <v>47537.83459212702</v>
       </c>
       <c r="O5" t="n">
-        <v>47803.41880288765</v>
+        <v>47803.41880288767</v>
       </c>
       <c r="P5" t="n">
-        <v>47803.41880288765</v>
+        <v>47803.41880288767</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-156384.5481159272</v>
+        <v>-156388.9556930752</v>
       </c>
       <c r="C6" t="n">
-        <v>-156384.5481159272</v>
+        <v>-156388.9556930751</v>
       </c>
       <c r="D6" t="n">
-        <v>-156384.5481159272</v>
+        <v>-156388.9556930752</v>
       </c>
       <c r="E6" t="n">
-        <v>-401883.7313384709</v>
+        <v>-402173.0264257716</v>
       </c>
       <c r="F6" t="n">
-        <v>-73014.98537386721</v>
+        <v>-73302.58852029049</v>
       </c>
       <c r="G6" t="n">
         <v>-183964.3704889189</v>
       </c>
       <c r="H6" t="n">
-        <v>-103141.0806791715</v>
+        <v>-103141.0806791713</v>
       </c>
       <c r="I6" t="n">
-        <v>-103141.0806791716</v>
+        <v>-103141.0806791714</v>
       </c>
       <c r="J6" t="n">
-        <v>-223025.4774203409</v>
+        <v>-223025.477420341</v>
       </c>
       <c r="K6" t="n">
-        <v>-112866.3470661114</v>
+        <v>-112866.3470661115</v>
       </c>
       <c r="L6" t="n">
-        <v>-193689.636875859</v>
+        <v>-193689.6368758591</v>
       </c>
       <c r="M6" t="n">
-        <v>-200088.5660020143</v>
+        <v>-200088.5660020146</v>
       </c>
       <c r="N6" t="n">
-        <v>-103677.6767744464</v>
+        <v>-103677.6767744462</v>
       </c>
       <c r="O6" t="n">
-        <v>-135933.0715083257</v>
+        <v>-135933.0715083258</v>
       </c>
       <c r="P6" t="n">
-        <v>-103229.2133483208</v>
+        <v>-103229.2133483206</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>142.0873990862972</v>
       </c>
       <c r="K2" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="L2" t="n">
         <v>142.0873990862971</v>
@@ -26719,10 +26719,10 @@
         <v>223.2155443464112</v>
       </c>
       <c r="N2" t="n">
-        <v>223.2155443464112</v>
+        <v>223.2155443464111</v>
       </c>
       <c r="O2" t="n">
-        <v>220.6602154301044</v>
+        <v>220.6602154301045</v>
       </c>
       <c r="P2" t="n">
         <v>220.6602154301045</v>
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>424.0766880244587</v>
+        <v>424.076688024459</v>
       </c>
       <c r="F4" t="n">
         <v>426.2675289496107</v>
@@ -26805,7 +26805,7 @@
         <v>426.2675289496107</v>
       </c>
       <c r="H4" t="n">
-        <v>426.2675289496108</v>
+        <v>426.2675289496107</v>
       </c>
       <c r="I4" t="n">
         <v>426.2675289496107</v>
@@ -26814,10 +26814,10 @@
         <v>721.7549121685624</v>
       </c>
       <c r="K4" t="n">
-        <v>721.7549121685624</v>
+        <v>721.7549121685623</v>
       </c>
       <c r="L4" t="n">
-        <v>721.7549121685624</v>
+        <v>721.7549121685623</v>
       </c>
       <c r="M4" t="n">
         <v>426.2675289496107</v>
@@ -26826,10 +26826,10 @@
         <v>426.2675289496107</v>
       </c>
       <c r="O4" t="n">
-        <v>434.1689789072689</v>
+        <v>434.1689789072691</v>
       </c>
       <c r="P4" t="n">
-        <v>434.1689789072689</v>
+        <v>434.1689789072691</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.0582868241127</v>
+        <v>41.05828682411266</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>101.0291122621845</v>
       </c>
       <c r="M2" t="n">
-        <v>81.12814526011405</v>
+        <v>81.12814526011411</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>38.50295790780596</v>
+        <v>38.50295790780601</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>424.0766880244587</v>
+        <v>424.076688024459</v>
       </c>
       <c r="F4" t="n">
-        <v>2.190840925151974</v>
+        <v>2.190840925151747</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>128.589304805507</v>
+        <v>128.5893048055074</v>
       </c>
       <c r="N4" t="n">
-        <v>2.190840925151974</v>
+        <v>2.190840925151747</v>
       </c>
       <c r="O4" t="n">
-        <v>7.901449957658144</v>
+        <v>7.901449957658429</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>41.0582868241127</v>
+        <v>41.05828682411266</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.0766880244587</v>
+        <v>424.076688024459</v>
       </c>
       <c r="N4" t="n">
-        <v>2.190840925151974</v>
+        <v>2.190840925151747</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28175,19 +28175,19 @@
         <v>122.1864320842266</v>
       </c>
       <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>122.1864320842266</v>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="H12" t="n">
-        <v>107.7416892983144</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>76.8039586076267</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,10 +28214,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>77.20360100342836</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>76.92038419526867</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -28226,16 +28226,16 @@
         <v>122.1864320842266</v>
       </c>
       <c r="V12" t="n">
-        <v>91.76476937698314</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="X12" t="n">
-        <v>122.1864320842266</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>122.1864320842266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28406,19 +28406,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="D15" t="n">
         <v>122.1864320842266</v>
       </c>
       <c r="E15" t="n">
-        <v>122.1864320842266</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>122.1864320842266</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>122.1864320842266</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>107.7416892983144</v>
@@ -28457,19 +28457,19 @@
         <v>122.1864320842266</v>
       </c>
       <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>6.058952911225163</v>
+      </c>
+      <c r="V15" t="n">
         <v>122.1864320842266</v>
       </c>
-      <c r="U15" t="n">
-        <v>6.058952911224935</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>122.1864320842266</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -28643,19 +28643,19 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>60.45829703837205</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>135.7414897785979</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>107.7416892983144</v>
@@ -28691,7 +28691,7 @@
         <v>77.20360100342836</v>
       </c>
       <c r="S18" t="n">
-        <v>163.7287805460299</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28700,13 +28700,13 @@
         <v>223.2155443464111</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>223.2155443464111</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>121.7208727963616</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28737,7 +28737,7 @@
         <v>167.6534039881795</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>159.5341731615887</v>
       </c>
       <c r="I19" t="n">
         <v>146.6558214528623</v>
@@ -28785,7 +28785,7 @@
         <v>223.2155443464111</v>
       </c>
       <c r="X19" t="n">
-        <v>187.0352618269529</v>
+        <v>27.50108866536416</v>
       </c>
       <c r="Y19" t="n">
         <v>218.7486738677682</v>
@@ -28877,28 +28877,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>135.7414897785979</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>107.7416892983144</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>76.8039586076267</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28928,10 +28928,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>163.7287805460299</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>148.0627453376432</v>
+        <v>197.2470008911528</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -28940,10 +28940,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>201.008645901178</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -28971,13 +28971,13 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>167.6534039881795</v>
+        <v>118.5947697599949</v>
       </c>
       <c r="H22" t="n">
         <v>159.5341731615887</v>
       </c>
       <c r="I22" t="n">
-        <v>146.6558214528623</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>72.1405695334325</v>
@@ -29019,7 +29019,7 @@
         <v>223.2155443464111</v>
       </c>
       <c r="W22" t="n">
-        <v>27.50108866536414</v>
+        <v>223.2155443464111</v>
       </c>
       <c r="X22" t="n">
         <v>223.2155443464111</v>
@@ -29117,13 +29117,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -29162,28 +29162,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>77.20360100342836</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>163.7287805460299</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>197.2470008911528</v>
+        <v>159.5313355566439</v>
       </c>
       <c r="U24" t="n">
-        <v>163.2307991012572</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>223.2155443464111</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="25">
@@ -29214,10 +29214,10 @@
         <v>159.5341731615887</v>
       </c>
       <c r="I25" t="n">
-        <v>113.712779598157</v>
+        <v>146.6558214528623</v>
       </c>
       <c r="J25" t="n">
-        <v>72.1405695334325</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>59.98343169308811</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>162.7714138263417</v>
       </c>
       <c r="S25" t="n">
         <v>218.2413475643591</v>
@@ -29262,7 +29262,7 @@
         <v>223.2155443464111</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.7486738677682</v>
+        <v>95.17478772015376</v>
       </c>
     </row>
     <row r="26">
@@ -29308,7 +29308,7 @@
         <v>142.0873990862972</v>
       </c>
       <c r="N26" t="n">
-        <v>142.0873990862973</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="O26" t="n">
         <v>142.0873990862972</v>
@@ -29357,22 +29357,22 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="G27" t="n">
-        <v>135.7414897785979</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>107.7416892983144</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>66.58744634852739</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29405,19 +29405,19 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>25.89582725284524</v>
+      </c>
+      <c r="X27" t="n">
         <v>142.0873990862972</v>
-      </c>
-      <c r="U27" t="n">
-        <v>142.0873990862972</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -29454,28 +29454,28 @@
         <v>142.0873990862972</v>
       </c>
       <c r="J28" t="n">
+        <v>72.1405695334325</v>
+      </c>
+      <c r="K28" t="n">
+        <v>94.22466229703451</v>
+      </c>
+      <c r="L28" t="n">
         <v>142.0873990862972</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
         <v>142.0873990862972</v>
       </c>
-      <c r="L28" t="n">
-        <v>84.26126443725721</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="P28" t="n">
-        <v>142.0873990862972</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>142.0873990862972</v>
+        <v>59.98343169308811</v>
       </c>
       <c r="R28" t="n">
         <v>142.0873990862972</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="C29" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="D29" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="E29" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="F29" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="G29" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="H29" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="I29" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="J29" t="n">
-        <v>142.0873990862971</v>
+        <v>142.087399086297</v>
       </c>
       <c r="K29" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="L29" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="M29" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="N29" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="O29" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="P29" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="Q29" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="R29" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="S29" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="T29" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="U29" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="V29" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="W29" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="X29" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="Y29" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
     </row>
     <row r="30">
@@ -29603,13 +29603,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>135.7414897785979</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>107.7416892983144</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>76.8039586076267</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,28 +29636,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>77.20360100342836</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>142.0873990862971</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>54.66728582376945</v>
+        <v>25.89582725284507</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>142.0873990862972</v>
       </c>
     </row>
     <row r="31">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="C31" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="D31" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="E31" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="F31" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="G31" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="H31" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="I31" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="J31" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>84.26126443725849</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="O31" t="n">
-        <v>142.0873990862971</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="Q31" t="n">
-        <v>142.0873990862971</v>
+        <v>84.26126443725784</v>
       </c>
       <c r="R31" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="S31" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="T31" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="U31" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="V31" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="W31" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="X31" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
       <c r="Y31" t="n">
-        <v>142.0873990862971</v>
+        <v>142.0873990862972</v>
       </c>
     </row>
     <row r="32">
@@ -29773,7 +29773,7 @@
         <v>142.0873990862971</v>
       </c>
       <c r="K32" t="n">
-        <v>142.0873990862975</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="L32" t="n">
         <v>142.0873990862971</v>
@@ -29828,25 +29828,25 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>135.7414897785979</v>
       </c>
       <c r="H33" t="n">
-        <v>107.7416892983144</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>76.8039586076267</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29876,13 +29876,13 @@
         <v>77.20360100342836</v>
       </c>
       <c r="S33" t="n">
-        <v>142.0873990862971</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>142.0873990862971</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>48.32137651607036</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -29891,7 +29891,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>97.12553464341357</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -29931,7 +29931,7 @@
         <v>142.0873990862971</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>142.0873990862971</v>
       </c>
       <c r="L34" t="n">
         <v>142.0873990862971</v>
@@ -29943,13 +29943,13 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>84.26126443725848</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>142.0873990862971</v>
       </c>
       <c r="Q34" t="n">
-        <v>142.0873990862971</v>
+        <v>84.26126443725829</v>
       </c>
       <c r="R34" t="n">
         <v>142.0873990862971</v>
@@ -30068,16 +30068,16 @@
         <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>135.7414897785979</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>107.7416892983144</v>
@@ -30110,16 +30110,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>77.20360100342836</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>163.7287805460299</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>197.2470008911528</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>71.43469027340322</v>
+        <v>223.2155443464112</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30131,7 +30131,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>119.9941608643817</v>
       </c>
     </row>
     <row r="37">
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C37" t="n">
         <v>167.3365529312023</v>
@@ -30198,7 +30198,7 @@
         <v>223.2155443464112</v>
       </c>
       <c r="U37" t="n">
-        <v>223.2155443464112</v>
+        <v>27.50108866536368</v>
       </c>
       <c r="V37" t="n">
         <v>223.2155443464112</v>
@@ -30210,7 +30210,7 @@
         <v>223.2155443464112</v>
       </c>
       <c r="Y37" t="n">
-        <v>203.1179096774048</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>223.2155443464112</v>
+        <v>223.2155443464111</v>
       </c>
       <c r="C38" t="n">
-        <v>223.2155443464112</v>
+        <v>223.2155443464111</v>
       </c>
       <c r="D38" t="n">
-        <v>223.2155443464112</v>
+        <v>223.2155443464111</v>
       </c>
       <c r="E38" t="n">
-        <v>223.2155443464112</v>
+        <v>223.2155443464111</v>
       </c>
       <c r="F38" t="n">
-        <v>223.2155443464112</v>
+        <v>223.2155443464111</v>
       </c>
       <c r="G38" t="n">
-        <v>223.2155443464112</v>
+        <v>223.2155443464111</v>
       </c>
       <c r="H38" t="n">
-        <v>223.2155443464112</v>
+        <v>223.2155443464111</v>
       </c>
       <c r="I38" t="n">
         <v>184.9251130432484</v>
@@ -30277,19 +30277,19 @@
         <v>220.6602154301045</v>
       </c>
       <c r="U38" t="n">
-        <v>223.2155443464112</v>
+        <v>223.2155443464111</v>
       </c>
       <c r="V38" t="n">
-        <v>223.2155443464112</v>
+        <v>223.2155443464111</v>
       </c>
       <c r="W38" t="n">
-        <v>223.2155443464112</v>
+        <v>223.2155443464111</v>
       </c>
       <c r="X38" t="n">
-        <v>223.2155443464112</v>
+        <v>223.2155443464111</v>
       </c>
       <c r="Y38" t="n">
-        <v>223.2155443464112</v>
+        <v>223.2155443464111</v>
       </c>
     </row>
     <row r="39">
@@ -30317,10 +30317,10 @@
         <v>135.7414897785979</v>
       </c>
       <c r="H39" t="n">
-        <v>107.7416892983144</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>76.8039586076267</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>77.20360100342836</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>163.7287805460299</v>
@@ -30356,16 +30356,16 @@
         <v>197.2470008911528</v>
       </c>
       <c r="U39" t="n">
-        <v>223.2155443464112</v>
+        <v>223.2155443464111</v>
       </c>
       <c r="V39" t="n">
-        <v>19.24472985439303</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>223.2155443464111</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>57.77843441735143</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -30381,7 +30381,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>149.0055665145194</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>59.98343169308811</v>
+        <v>31.60552894324343</v>
       </c>
       <c r="R40" t="n">
         <v>162.7714138263417</v>
@@ -30432,19 +30432,19 @@
         <v>218.2413475643591</v>
       </c>
       <c r="T40" t="n">
-        <v>223.2155443464112</v>
+        <v>223.2155443464111</v>
       </c>
       <c r="U40" t="n">
-        <v>27.50108866536391</v>
+        <v>223.2155443464111</v>
       </c>
       <c r="V40" t="n">
-        <v>223.2155443464112</v>
+        <v>223.2155443464111</v>
       </c>
       <c r="W40" t="n">
-        <v>223.2155443464112</v>
+        <v>223.2155443464111</v>
       </c>
       <c r="X40" t="n">
-        <v>223.2155443464112</v>
+        <v>223.2155443464111</v>
       </c>
       <c r="Y40" t="n">
         <v>218.7486738677682</v>
@@ -30457,31 +30457,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>220.6602154301044</v>
+        <v>220.6602154301045</v>
       </c>
       <c r="C41" t="n">
-        <v>220.6602154301044</v>
+        <v>220.6602154301045</v>
       </c>
       <c r="D41" t="n">
-        <v>220.6602154301044</v>
+        <v>220.6602154301045</v>
       </c>
       <c r="E41" t="n">
-        <v>220.6602154301044</v>
+        <v>220.6602154301045</v>
       </c>
       <c r="F41" t="n">
-        <v>220.6602154301044</v>
+        <v>220.6602154301045</v>
       </c>
       <c r="G41" t="n">
-        <v>220.6602154301044</v>
+        <v>220.6602154301045</v>
       </c>
       <c r="H41" t="n">
-        <v>220.6602154301044</v>
+        <v>220.6602154301045</v>
       </c>
       <c r="I41" t="n">
-        <v>184.9251130432484</v>
+        <v>216.2116623705423</v>
       </c>
       <c r="J41" t="n">
-        <v>31.28654932729276</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30511,22 +30511,22 @@
         <v>193.8665624602787</v>
       </c>
       <c r="T41" t="n">
-        <v>220.6602154301044</v>
+        <v>220.6602154301045</v>
       </c>
       <c r="U41" t="n">
-        <v>220.6602154301044</v>
+        <v>220.6602154301045</v>
       </c>
       <c r="V41" t="n">
-        <v>220.6602154301044</v>
+        <v>220.6602154301045</v>
       </c>
       <c r="W41" t="n">
-        <v>220.6602154301044</v>
+        <v>220.6602154301045</v>
       </c>
       <c r="X41" t="n">
-        <v>220.6602154301044</v>
+        <v>220.6602154301045</v>
       </c>
       <c r="Y41" t="n">
-        <v>220.6602154301044</v>
+        <v>220.6602154301045</v>
       </c>
     </row>
     <row r="42">
@@ -30542,7 +30542,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>67.41889137432514</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -30551,10 +30551,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>135.7414897785979</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>107.7416892983144</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>76.8039586076267</v>
@@ -30584,16 +30584,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>77.20360100342836</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>163.7287805460299</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>197.2470008911528</v>
       </c>
       <c r="U42" t="n">
-        <v>211.7963272051247</v>
+        <v>220.6602154301045</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30602,10 +30602,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="43">
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C43" t="n">
         <v>167.3365529312023</v>
@@ -30669,19 +30669,19 @@
         <v>218.2413475643591</v>
       </c>
       <c r="T43" t="n">
-        <v>220.6602154301044</v>
+        <v>220.6602154301045</v>
       </c>
       <c r="U43" t="n">
-        <v>220.6602154301044</v>
+        <v>220.6602154301045</v>
       </c>
       <c r="V43" t="n">
-        <v>220.6602154301044</v>
+        <v>220.6602154301045</v>
       </c>
       <c r="W43" t="n">
-        <v>217.8060958212747</v>
+        <v>37.72240433059085</v>
       </c>
       <c r="X43" t="n">
-        <v>220.6602154301044</v>
+        <v>220.6602154301045</v>
       </c>
       <c r="Y43" t="n">
         <v>218.7486738677682</v>
@@ -30715,7 +30715,7 @@
         <v>220.6602154301045</v>
       </c>
       <c r="I44" t="n">
-        <v>189.4180094007154</v>
+        <v>216.2116623705423</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,7 +30745,7 @@
         <v>108.7759430713306</v>
       </c>
       <c r="S44" t="n">
-        <v>220.6602154301045</v>
+        <v>193.8665624602787</v>
       </c>
       <c r="T44" t="n">
         <v>220.6602154301045</v>
@@ -30779,22 +30779,22 @@
         <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
-        <v>146.1124235746456</v>
+        <v>33.13669435537315</v>
       </c>
       <c r="E45" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>135.7414897785979</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>107.7416892983144</v>
       </c>
       <c r="I45" t="n">
-        <v>76.8039586076267</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>77.20360100342836</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30830,7 +30830,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>33.29803635296594</v>
+        <v>220.6602154301045</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30839,7 +30839,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30912,13 +30912,13 @@
         <v>220.6602154301045</v>
       </c>
       <c r="V46" t="n">
-        <v>37.72240433059085</v>
+        <v>220.6602154301045</v>
       </c>
       <c r="W46" t="n">
         <v>220.6602154301045</v>
       </c>
       <c r="X46" t="n">
-        <v>220.6602154301045</v>
+        <v>37.72240433059088</v>
       </c>
       <c r="Y46" t="n">
         <v>218.7486738677682</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>35.35477719942057</v>
+        <v>44.02962207476989</v>
       </c>
       <c r="K11" t="n">
         <v>189.5006998178916</v>
       </c>
       <c r="L11" t="n">
-        <v>287.5863932284254</v>
+        <v>278.911548353077</v>
       </c>
       <c r="M11" t="n">
         <v>335.3612278242159</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>34.08439297349503</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>186.1401142843274</v>
       </c>
       <c r="L12" t="n">
-        <v>25.75062390762926</v>
+        <v>311.7526042299164</v>
       </c>
       <c r="M12" t="n">
-        <v>417.1341140843383</v>
+        <v>47.25701191168649</v>
       </c>
       <c r="N12" t="n">
-        <v>424.0766880244587</v>
+        <v>424.076688024459</v>
       </c>
       <c r="O12" t="n">
         <v>337.6139297378432</v>
@@ -35507,7 +35507,7 @@
         <v>254.3724774483912</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>117.9595148238605</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>50.04586255079414</v>
+        <v>50.04586255079413</v>
       </c>
       <c r="K13" t="n">
         <v>134.852418346816</v>
@@ -35586,7 +35586,7 @@
         <v>156.8739491412472</v>
       </c>
       <c r="Q13" t="n">
-        <v>62.20300039113853</v>
+        <v>62.20300039113852</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>34.08439297349503</v>
       </c>
       <c r="K15" t="n">
         <v>186.1401142843274</v>
@@ -35735,7 +35735,7 @@
         <v>417.1341140843383</v>
       </c>
       <c r="N15" t="n">
-        <v>180.8339455510159</v>
+        <v>28.79003775366036</v>
       </c>
       <c r="O15" t="n">
         <v>337.6139297378432</v>
@@ -35744,7 +35744,7 @@
         <v>254.3724774483912</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>117.9595148238605</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>50.04586255079414</v>
+        <v>50.04586255079413</v>
       </c>
       <c r="K16" t="n">
         <v>134.852418346816</v>
@@ -35823,7 +35823,7 @@
         <v>156.8739491412472</v>
       </c>
       <c r="Q16" t="n">
-        <v>62.20300039113853</v>
+        <v>62.20300039113852</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>184.9347061106105</v>
       </c>
       <c r="Q17" t="n">
-        <v>60.9192709550561</v>
+        <v>60.91927095505613</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>34.08439297349503</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>186.1401142843274</v>
       </c>
       <c r="L18" t="n">
         <v>311.7526042299164</v>
@@ -35972,13 +35972,13 @@
         <v>417.1341140843383</v>
       </c>
       <c r="N18" t="n">
-        <v>426.2675289496107</v>
+        <v>28.79003775366036</v>
       </c>
       <c r="O18" t="n">
         <v>337.6139297378432</v>
       </c>
       <c r="P18" t="n">
-        <v>77.11949351026333</v>
+        <v>254.3724774483912</v>
       </c>
       <c r="Q18" t="n">
         <v>117.9595148238605</v>
@@ -36124,7 +36124,7 @@
         <v>189.5006998178916</v>
       </c>
       <c r="L20" t="n">
-        <v>287.5863932284255</v>
+        <v>287.5863932284254</v>
       </c>
       <c r="M20" t="n">
         <v>335.3612278242159</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>8.938894049796376</v>
+        <v>34.08439297349503</v>
       </c>
       <c r="K21" t="n">
         <v>186.1401142843274</v>
@@ -36206,19 +36206,19 @@
         <v>311.7526042299164</v>
       </c>
       <c r="M21" t="n">
-        <v>417.1341140843383</v>
+        <v>19.65662288838794</v>
       </c>
       <c r="N21" t="n">
-        <v>426.2675289496108</v>
+        <v>426.2675289496107</v>
       </c>
       <c r="O21" t="n">
         <v>337.6139297378432</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>254.3724774483912</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>117.9595148238605</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>8.938894049796383</v>
+        <v>34.08439297349503</v>
       </c>
       <c r="K24" t="n">
         <v>186.1401142843274</v>
@@ -36446,16 +36446,16 @@
         <v>417.1341140843383</v>
       </c>
       <c r="N24" t="n">
-        <v>426.2675289496107</v>
+        <v>28.79003775366036</v>
       </c>
       <c r="O24" t="n">
         <v>337.6139297378432</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>254.3724774483912</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>117.9595148238605</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>186.1170211610671</v>
+        <v>186.117021161067</v>
       </c>
       <c r="K26" t="n">
         <v>331.5880989041888</v>
       </c>
       <c r="L26" t="n">
-        <v>429.6737923147226</v>
+        <v>429.6737923147225</v>
       </c>
       <c r="M26" t="n">
         <v>477.4486269105131</v>
       </c>
       <c r="N26" t="n">
-        <v>467.2012080524725</v>
+        <v>467.2012080524723</v>
       </c>
       <c r="O26" t="n">
-        <v>402.4888554449849</v>
+        <v>402.488855444985</v>
       </c>
       <c r="P26" t="n">
         <v>327.0221051969077</v>
@@ -36616,7 +36616,7 @@
         <v>203.0066700413533</v>
       </c>
       <c r="R26" t="n">
-        <v>33.31145601496658</v>
+        <v>33.31145601496655</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>69.94682955286468</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>154.7533853488866</v>
+        <v>106.8906485596239</v>
       </c>
       <c r="L28" t="n">
-        <v>156.8366541235305</v>
+        <v>214.6627887725704</v>
       </c>
       <c r="M28" t="n">
         <v>87.22047121212211</v>
       </c>
       <c r="N28" t="n">
-        <v>90.33975718720879</v>
+        <v>232.4271562735059</v>
       </c>
       <c r="O28" t="n">
-        <v>67.95187600364967</v>
+        <v>210.0392750899468</v>
       </c>
       <c r="P28" t="n">
-        <v>176.7749161433178</v>
+        <v>34.6875170570206</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.10396739320907</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>186.117021161067</v>
+        <v>186.1170211610669</v>
       </c>
       <c r="K29" t="n">
         <v>331.5880989041888</v>
@@ -36850,10 +36850,10 @@
         <v>327.0221051969077</v>
       </c>
       <c r="Q29" t="n">
-        <v>203.0066700413532</v>
+        <v>203.0066700413533</v>
       </c>
       <c r="R29" t="n">
-        <v>33.31145601496652</v>
+        <v>33.31145601496655</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>69.94682955286463</v>
+        <v>69.94682955286466</v>
       </c>
       <c r="K31" t="n">
         <v>12.66598626258937</v>
       </c>
       <c r="L31" t="n">
-        <v>156.8366541235317</v>
+        <v>72.57538968627324</v>
       </c>
       <c r="M31" t="n">
-        <v>87.22047121212211</v>
+        <v>229.3078702984193</v>
       </c>
       <c r="N31" t="n">
-        <v>90.33975718720879</v>
+        <v>232.4271562735059</v>
       </c>
       <c r="O31" t="n">
-        <v>210.0392750899468</v>
+        <v>67.95187600364967</v>
       </c>
       <c r="P31" t="n">
         <v>176.7749161433177</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.10396739320902</v>
+        <v>24.27783274416973</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>186.117021161067</v>
       </c>
       <c r="K32" t="n">
-        <v>331.5880989041891</v>
+        <v>331.5880989041888</v>
       </c>
       <c r="L32" t="n">
         <v>429.6737923147225</v>
@@ -37227,7 +37227,7 @@
         <v>69.94682955286463</v>
       </c>
       <c r="K34" t="n">
-        <v>12.66598626258937</v>
+        <v>154.7533853488865</v>
       </c>
       <c r="L34" t="n">
         <v>214.6627887725704</v>
@@ -37239,13 +37239,13 @@
         <v>90.33975718720879</v>
       </c>
       <c r="O34" t="n">
-        <v>152.2131404409081</v>
+        <v>67.95187600364967</v>
       </c>
       <c r="P34" t="n">
         <v>176.7749161433177</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.10396739320902</v>
+        <v>24.27783274417019</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>34.08439297349503</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>186.1401142843274</v>
       </c>
       <c r="L39" t="n">
-        <v>311.7526042299164</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>417.1341140843383</v>
@@ -37634,13 +37634,13 @@
         <v>426.2675289496107</v>
       </c>
       <c r="O39" t="n">
-        <v>337.6139297378432</v>
+        <v>251.8890427718092</v>
       </c>
       <c r="P39" t="n">
-        <v>195.0790083341238</v>
+        <v>254.3724774483912</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>117.9595148238605</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>31.28654932729389</v>
       </c>
       <c r="J41" t="n">
-        <v>75.31617140206265</v>
+        <v>44.02962207476989</v>
       </c>
       <c r="K41" t="n">
         <v>189.5006998178916</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>34.08439297349503</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>186.1401142843274</v>
       </c>
       <c r="L42" t="n">
-        <v>275.8442344852836</v>
+        <v>311.7526042299164</v>
       </c>
       <c r="M42" t="n">
         <v>417.1341140843383</v>
       </c>
       <c r="N42" t="n">
-        <v>434.1689789072689</v>
+        <v>60.07658708095443</v>
       </c>
       <c r="O42" t="n">
         <v>337.6139297378432</v>
@@ -37877,7 +37877,7 @@
         <v>254.3724774483912</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>117.9595148238605</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>4.492896357466954</v>
+        <v>31.28654932729389</v>
       </c>
       <c r="J44" t="n">
         <v>44.02962207476989</v>
@@ -38041,7 +38041,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>26.79365296982579</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38102,19 +38102,19 @@
         <v>311.7526042299164</v>
       </c>
       <c r="M45" t="n">
-        <v>161.0012370818831</v>
+        <v>417.1341140843383</v>
       </c>
       <c r="N45" t="n">
-        <v>434.1689789072689</v>
+        <v>397.6905168187976</v>
       </c>
       <c r="O45" t="n">
-        <v>337.6139297378432</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>254.3724774483912</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>117.9595148238605</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
